--- a/me/12.Year-2020-Updates.xlsx
+++ b/me/12.Year-2020-Updates.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\LightningWebComponent\me\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BC31C2F-A2F3-4868-A228-780F9E0F830D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3022947B-142E-4003-88C5-2A8D3C8544F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Lightning Messaging Service" sheetId="1" r:id="rId1"/>
+    <sheet name="CSS Modules" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="369">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="739" uniqueCount="431">
   <si>
     <t>構成</t>
   </si>
@@ -1450,6 +1451,236 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> property is mandatory</t>
+    </r>
+  </si>
+  <si>
+    <t>CSS Modules - Share CSS Styles Among Components</t>
+  </si>
+  <si>
+    <t>After summer 2020 release we can create CSS module that we can import all Lighting Web Components whereever we want to import that particular CSS library or module and we use</t>
+  </si>
+  <si>
+    <t>the classes or the properties defined in that CSS module within our Lightning Web Component</t>
+  </si>
+  <si>
+    <t>cardStyle</t>
+  </si>
+  <si>
+    <t>cardStyle.css</t>
+  </si>
+  <si>
+    <t>cardStyle.js-meta.xml</t>
+  </si>
+  <si>
+    <t>LightningWebComponent\LWC\force-app\main\default\lwc\cardStyle\cardStyle.css</t>
+  </si>
+  <si>
+    <t>.sfdcfacts-card {</t>
+  </si>
+  <si>
+    <t>    background: gold;</t>
+  </si>
+  <si>
+    <t>    margin: .5rem;</t>
+  </si>
+  <si>
+    <t>    transition: .5s all;</t>
+  </si>
+  <si>
+    <t>.sfdcfacts-card-title {</t>
+  </si>
+  <si>
+    <t>    font-size: large;</t>
+  </si>
+  <si>
+    <t>    color: darkblue;</t>
+  </si>
+  <si>
+    <t>    text-transform: uppercase;</t>
+  </si>
+  <si>
+    <t>.sfdcfacts-card-desc {</t>
+  </si>
+  <si>
+    <t>    margin-top: 8px;</t>
+  </si>
+  <si>
+    <t>    font-style: normal;</t>
+  </si>
+  <si>
+    <t>    color: #161920;</t>
+  </si>
+  <si>
+    <t>.sfdcfacts-card:hover {</t>
+  </si>
+  <si>
+    <t>    background: aliceblue;</t>
+  </si>
+  <si>
+    <t>udemyVideosPipeline</t>
+  </si>
+  <si>
+    <t>udemyVideosPipeline.css</t>
+  </si>
+  <si>
+    <t>udemyVideosPipeline.html</t>
+  </si>
+  <si>
+    <t>udemyVideosPipeline.js</t>
+  </si>
+  <si>
+    <t>udemyVideosPipeline.js-meta.xml</t>
+  </si>
+  <si>
+    <t>LightningWebComponent\LWC\force-app\main\default\lwc\udemyVideosPipeline\udemyVideosPipeline.js-meta.xml</t>
+  </si>
+  <si>
+    <t>    &lt;apiVersion&gt;56.0&lt;/apiVersion&gt;</t>
+  </si>
+  <si>
+    <t>LightningWebComponent\LWC\force-app\main\default\lwc\udemyVideosPipeline\udemyVideosPipeline.css</t>
+  </si>
+  <si>
+    <t>@import "c/cardStyle";</t>
+  </si>
+  <si>
+    <t>LightningWebComponent\LWC\force-app\main\default\lwc\udemyVideosPipeline\udemyVideosPipeline.html</t>
+  </si>
+  <si>
+    <t>    &lt;div style="background: white;"&gt;</t>
+  </si>
+  <si>
+    <t>        &lt;template for:each={todoVideos} for:item="video"&gt;</t>
+  </si>
+  <si>
+    <t>            &lt;div key={video.id} class="sfdcfacts-card"&gt;</t>
+  </si>
+  <si>
+    <t>                &lt;span class="sfdcfacts-card-title"&gt;{video.title}&lt;/span&gt;</t>
+  </si>
+  <si>
+    <t>                &lt;p class="sfdcfacts-card-desc"&gt;{video.description}&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>            &lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>        &lt;/template&gt;</t>
+  </si>
+  <si>
+    <t>    &lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>LightningWebComponent\LWC\force-app\main\default\lwc\udemyVideosPipeline\udemyVideosPipeline.js</t>
+  </si>
+  <si>
+    <t>import { LightningElement } from "lwc";</t>
+  </si>
+  <si>
+    <t>export default class UdemyVideosPipeline extends LightningElement {</t>
+  </si>
+  <si>
+    <t>  todoVideos = [</t>
+  </si>
+  <si>
+    <t>    {</t>
+  </si>
+  <si>
+    <t>      id: 0,</t>
+  </si>
+  <si>
+    <t>      title: "Lightning Message Service",</t>
+  </si>
+  <si>
+    <t>      done: true,</t>
+  </si>
+  <si>
+    <t>      description: "Explai LMS with Aura and LWC example"</t>
+  </si>
+  <si>
+    <t>      id: 1,</t>
+  </si>
+  <si>
+    <t>      title: "Explain CSS Modules",</t>
+  </si>
+  <si>
+    <t>      done: false,</t>
+  </si>
+  <si>
+    <t>      description: "Share CSS styles among components"</t>
+  </si>
+  <si>
+    <t>      id: 2,</t>
+  </si>
+  <si>
+    <t>      title: "Check user permissions in LWC",</t>
+  </si>
+  <si>
+    <t>      description:</t>
+  </si>
+  <si>
+    <t>        'Check user permissions in Lightning Web Component with new "userPermission" modules'</t>
+  </si>
+  <si>
+    <t>      id: 3,</t>
+  </si>
+  <si>
+    <t>      title: "Check if component is connected to DOM",</t>
+  </si>
+  <si>
+    <t>        "Check Whether a Lightning Web Component Is Connected to the DOM"</t>
+  </si>
+  <si>
+    <t>  ];</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">use </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>cardStyle</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> module to actually stylized these elements</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>                &lt;div key={message.id} class="</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>sfdcfacts-card</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"&gt;</t>
     </r>
   </si>
 </sst>
@@ -1579,7 +1810,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -1594,7 +1825,18 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2650,6 +2892,305 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>186</xdr:row>
+      <xdr:rowOff>145676</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>145676</xdr:colOff>
+      <xdr:row>226</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Straight Arrow Connector 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B6BDB766-704E-8E7F-E5DF-D0AEB84DC30F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1410260" y="35578676"/>
+          <a:ext cx="2971240" cy="7560049"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>305</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>302559</xdr:colOff>
+      <xdr:row>313</xdr:row>
+      <xdr:rowOff>176772</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DAB47CD9-43B5-BEF3-714F-B3FDCF09AB78}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="662268" y="58150125"/>
+          <a:ext cx="11137526" cy="1653147"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>257736</xdr:colOff>
+      <xdr:row>186</xdr:row>
+      <xdr:rowOff>179294</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>235323</xdr:colOff>
+      <xdr:row>316</xdr:row>
+      <xdr:rowOff>67235</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="Straight Arrow Connector 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B1374EE-6C04-8190-9D54-2A029A3B1ECB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1467971" y="35612294"/>
+          <a:ext cx="3003176" cy="24652941"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>100852</xdr:colOff>
+      <xdr:row>328</xdr:row>
+      <xdr:rowOff>67234</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>89647</xdr:colOff>
+      <xdr:row>362</xdr:row>
+      <xdr:rowOff>114002</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="Picture 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8875ED0D-805A-DCD3-95DA-326D76C560B1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="705970" y="62551234"/>
+          <a:ext cx="10880912" cy="6523768"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>100853</xdr:colOff>
+      <xdr:row>364</xdr:row>
+      <xdr:rowOff>67235</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>280147</xdr:colOff>
+      <xdr:row>393</xdr:row>
+      <xdr:rowOff>54125</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="Picture 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1414E048-42F2-30A5-D81E-509C807EA5A0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="705971" y="69409235"/>
+          <a:ext cx="11071411" cy="5511390"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>112058</xdr:colOff>
+      <xdr:row>394</xdr:row>
+      <xdr:rowOff>78441</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>134470</xdr:colOff>
+      <xdr:row>432</xdr:row>
+      <xdr:rowOff>54535</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="Picture 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{338E7049-F313-6C9F-F4C6-20ABD6AC6B22}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="717176" y="75135441"/>
+          <a:ext cx="10914529" cy="7215094"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -2915,8 +3456,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:T529"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A314" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P336" sqref="P336"/>
+    <sheetView topLeftCell="A169" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11:L180"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5825,2114 +6366,386 @@
     </row>
     <row r="433" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A433" s="4"/>
-      <c r="B433" s="14"/>
-      <c r="C433" s="14"/>
-      <c r="D433" s="14"/>
-      <c r="E433" s="14"/>
-      <c r="F433" s="14"/>
-      <c r="G433" s="14"/>
-      <c r="H433" s="14"/>
-      <c r="I433" s="14"/>
-      <c r="J433" s="14"/>
-      <c r="K433" s="14"/>
-      <c r="L433" s="14"/>
-      <c r="M433" s="14"/>
-      <c r="N433" s="14"/>
-      <c r="O433" s="14"/>
-      <c r="P433" s="14"/>
-      <c r="Q433" s="14"/>
-      <c r="R433" s="14"/>
-      <c r="S433" s="14"/>
       <c r="T433" s="5"/>
     </row>
     <row r="434" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A434" s="4"/>
-      <c r="B434" s="14"/>
-      <c r="C434" s="14"/>
-      <c r="D434" s="14"/>
-      <c r="E434" s="14"/>
-      <c r="F434" s="14"/>
-      <c r="G434" s="14"/>
-      <c r="H434" s="14"/>
-      <c r="I434" s="14"/>
-      <c r="J434" s="14"/>
-      <c r="K434" s="14"/>
-      <c r="L434" s="14"/>
-      <c r="M434" s="14"/>
-      <c r="N434" s="14"/>
-      <c r="O434" s="14"/>
-      <c r="P434" s="14"/>
-      <c r="Q434" s="14"/>
-      <c r="R434" s="14"/>
-      <c r="S434" s="14"/>
       <c r="T434" s="5"/>
     </row>
     <row r="435" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A435" s="4"/>
-      <c r="B435" s="14"/>
-      <c r="C435" s="14"/>
-      <c r="D435" s="14"/>
-      <c r="E435" s="14"/>
-      <c r="F435" s="14"/>
-      <c r="G435" s="14"/>
-      <c r="H435" s="14"/>
-      <c r="I435" s="14"/>
-      <c r="J435" s="14"/>
-      <c r="K435" s="14"/>
-      <c r="L435" s="14"/>
-      <c r="M435" s="14"/>
-      <c r="N435" s="14"/>
-      <c r="O435" s="14"/>
-      <c r="P435" s="14"/>
-      <c r="Q435" s="14"/>
-      <c r="R435" s="14"/>
-      <c r="S435" s="14"/>
       <c r="T435" s="5"/>
     </row>
     <row r="436" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A436" s="4"/>
-      <c r="B436" s="14"/>
-      <c r="C436" s="14"/>
-      <c r="D436" s="14"/>
-      <c r="E436" s="14"/>
-      <c r="F436" s="14"/>
-      <c r="G436" s="14"/>
-      <c r="H436" s="14"/>
-      <c r="I436" s="14"/>
-      <c r="J436" s="14"/>
-      <c r="K436" s="14"/>
-      <c r="L436" s="14"/>
-      <c r="M436" s="14"/>
-      <c r="N436" s="14"/>
-      <c r="O436" s="14"/>
-      <c r="P436" s="14"/>
-      <c r="Q436" s="14"/>
-      <c r="R436" s="14"/>
-      <c r="S436" s="14"/>
       <c r="T436" s="5"/>
     </row>
     <row r="437" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A437" s="4"/>
-      <c r="B437" s="14"/>
-      <c r="C437" s="14"/>
-      <c r="D437" s="14"/>
-      <c r="E437" s="14"/>
-      <c r="F437" s="14"/>
-      <c r="G437" s="14"/>
-      <c r="H437" s="14"/>
-      <c r="I437" s="14"/>
-      <c r="J437" s="14"/>
-      <c r="K437" s="14"/>
-      <c r="L437" s="14"/>
-      <c r="M437" s="14"/>
-      <c r="N437" s="14"/>
-      <c r="O437" s="14"/>
-      <c r="P437" s="14"/>
-      <c r="Q437" s="14"/>
-      <c r="R437" s="14"/>
-      <c r="S437" s="14"/>
       <c r="T437" s="5"/>
     </row>
     <row r="438" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A438" s="4"/>
-      <c r="B438" s="14"/>
-      <c r="C438" s="14"/>
-      <c r="D438" s="14"/>
-      <c r="E438" s="14"/>
-      <c r="F438" s="14"/>
-      <c r="G438" s="14"/>
-      <c r="H438" s="14"/>
-      <c r="I438" s="14"/>
-      <c r="J438" s="14"/>
-      <c r="K438" s="14"/>
-      <c r="L438" s="14"/>
-      <c r="M438" s="14"/>
-      <c r="N438" s="14"/>
-      <c r="O438" s="14"/>
-      <c r="P438" s="14"/>
-      <c r="Q438" s="14"/>
-      <c r="R438" s="14"/>
-      <c r="S438" s="14"/>
       <c r="T438" s="5"/>
     </row>
     <row r="439" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A439" s="4"/>
-      <c r="B439" s="14"/>
-      <c r="C439" s="14"/>
-      <c r="D439" s="14"/>
-      <c r="E439" s="14"/>
-      <c r="F439" s="14"/>
-      <c r="G439" s="14"/>
-      <c r="H439" s="14"/>
-      <c r="I439" s="14"/>
-      <c r="J439" s="14"/>
-      <c r="K439" s="14"/>
-      <c r="L439" s="14"/>
-      <c r="M439" s="14"/>
-      <c r="N439" s="14"/>
-      <c r="O439" s="14"/>
-      <c r="P439" s="14"/>
-      <c r="Q439" s="14"/>
-      <c r="R439" s="14"/>
-      <c r="S439" s="14"/>
       <c r="T439" s="5"/>
     </row>
     <row r="440" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A440" s="4"/>
-      <c r="B440" s="14"/>
-      <c r="C440" s="14"/>
-      <c r="D440" s="14"/>
-      <c r="E440" s="14"/>
-      <c r="F440" s="14"/>
-      <c r="G440" s="14"/>
-      <c r="H440" s="14"/>
-      <c r="I440" s="14"/>
-      <c r="J440" s="14"/>
-      <c r="K440" s="14"/>
-      <c r="L440" s="14"/>
-      <c r="M440" s="14"/>
-      <c r="N440" s="14"/>
-      <c r="O440" s="14"/>
-      <c r="P440" s="14"/>
-      <c r="Q440" s="14"/>
-      <c r="R440" s="14"/>
-      <c r="S440" s="14"/>
       <c r="T440" s="5"/>
     </row>
     <row r="441" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A441" s="4"/>
-      <c r="B441" s="14"/>
-      <c r="C441" s="14"/>
-      <c r="D441" s="14"/>
-      <c r="E441" s="14"/>
-      <c r="F441" s="14"/>
-      <c r="G441" s="14"/>
-      <c r="H441" s="14"/>
-      <c r="I441" s="14"/>
-      <c r="J441" s="14"/>
-      <c r="K441" s="14"/>
-      <c r="L441" s="14"/>
-      <c r="M441" s="14"/>
-      <c r="N441" s="14"/>
-      <c r="O441" s="14"/>
-      <c r="P441" s="14"/>
-      <c r="Q441" s="14"/>
-      <c r="R441" s="14"/>
-      <c r="S441" s="14"/>
       <c r="T441" s="5"/>
     </row>
     <row r="442" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A442" s="4"/>
-      <c r="B442" s="14"/>
-      <c r="C442" s="14"/>
-      <c r="D442" s="14"/>
-      <c r="E442" s="14"/>
-      <c r="F442" s="14"/>
-      <c r="G442" s="14"/>
-      <c r="H442" s="14"/>
-      <c r="I442" s="14"/>
-      <c r="J442" s="14"/>
-      <c r="K442" s="14"/>
-      <c r="L442" s="14"/>
-      <c r="M442" s="14"/>
-      <c r="N442" s="14"/>
-      <c r="O442" s="14"/>
-      <c r="P442" s="14"/>
-      <c r="Q442" s="14"/>
-      <c r="R442" s="14"/>
-      <c r="S442" s="14"/>
       <c r="T442" s="5"/>
     </row>
     <row r="443" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A443" s="4"/>
-      <c r="B443" s="14"/>
-      <c r="C443" s="14"/>
-      <c r="D443" s="14"/>
-      <c r="E443" s="14"/>
-      <c r="F443" s="14"/>
-      <c r="G443" s="14"/>
-      <c r="H443" s="14"/>
-      <c r="I443" s="14"/>
-      <c r="J443" s="14"/>
-      <c r="K443" s="14"/>
-      <c r="L443" s="14"/>
-      <c r="M443" s="14"/>
-      <c r="N443" s="14"/>
-      <c r="O443" s="14"/>
-      <c r="P443" s="14"/>
-      <c r="Q443" s="14"/>
-      <c r="R443" s="14"/>
-      <c r="S443" s="14"/>
       <c r="T443" s="5"/>
     </row>
     <row r="444" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A444" s="4"/>
-      <c r="B444" s="14"/>
-      <c r="C444" s="14"/>
-      <c r="D444" s="14"/>
-      <c r="E444" s="14"/>
-      <c r="F444" s="14"/>
-      <c r="G444" s="14"/>
-      <c r="H444" s="14"/>
-      <c r="I444" s="14"/>
-      <c r="J444" s="14"/>
-      <c r="K444" s="14"/>
-      <c r="L444" s="14"/>
-      <c r="M444" s="14"/>
-      <c r="N444" s="14"/>
-      <c r="O444" s="14"/>
-      <c r="P444" s="14"/>
-      <c r="Q444" s="14"/>
-      <c r="R444" s="14"/>
-      <c r="S444" s="14"/>
       <c r="T444" s="5"/>
     </row>
     <row r="445" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A445" s="4"/>
-      <c r="B445" s="14"/>
-      <c r="C445" s="14"/>
-      <c r="D445" s="14"/>
-      <c r="E445" s="14"/>
-      <c r="F445" s="14"/>
-      <c r="G445" s="14"/>
-      <c r="H445" s="14"/>
-      <c r="I445" s="14"/>
-      <c r="J445" s="14"/>
-      <c r="K445" s="14"/>
-      <c r="L445" s="14"/>
-      <c r="M445" s="14"/>
-      <c r="N445" s="14"/>
-      <c r="O445" s="14"/>
-      <c r="P445" s="14"/>
-      <c r="Q445" s="14"/>
-      <c r="R445" s="14"/>
-      <c r="S445" s="14"/>
       <c r="T445" s="5"/>
     </row>
     <row r="446" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A446" s="4"/>
-      <c r="B446" s="14"/>
-      <c r="C446" s="14"/>
-      <c r="D446" s="14"/>
-      <c r="E446" s="14"/>
-      <c r="F446" s="14"/>
-      <c r="G446" s="14"/>
-      <c r="H446" s="14"/>
-      <c r="I446" s="14"/>
-      <c r="J446" s="14"/>
-      <c r="K446" s="14"/>
-      <c r="L446" s="14"/>
-      <c r="M446" s="14"/>
-      <c r="N446" s="14"/>
-      <c r="O446" s="14"/>
-      <c r="P446" s="14"/>
-      <c r="Q446" s="14"/>
-      <c r="R446" s="14"/>
-      <c r="S446" s="14"/>
       <c r="T446" s="5"/>
     </row>
     <row r="447" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A447" s="4"/>
-      <c r="B447" s="14"/>
-      <c r="C447" s="14"/>
-      <c r="D447" s="14"/>
-      <c r="E447" s="14"/>
-      <c r="F447" s="14"/>
-      <c r="G447" s="14"/>
-      <c r="H447" s="14"/>
-      <c r="I447" s="14"/>
-      <c r="J447" s="14"/>
-      <c r="K447" s="14"/>
-      <c r="L447" s="14"/>
-      <c r="M447" s="14"/>
-      <c r="N447" s="14"/>
-      <c r="O447" s="14"/>
-      <c r="P447" s="14"/>
-      <c r="Q447" s="14"/>
-      <c r="R447" s="14"/>
-      <c r="S447" s="14"/>
       <c r="T447" s="5"/>
     </row>
     <row r="448" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A448" s="4"/>
-      <c r="B448" s="14"/>
-      <c r="C448" s="14"/>
-      <c r="D448" s="14"/>
-      <c r="E448" s="14"/>
-      <c r="F448" s="14"/>
-      <c r="G448" s="14"/>
-      <c r="H448" s="14"/>
-      <c r="I448" s="14"/>
-      <c r="J448" s="14"/>
-      <c r="K448" s="14"/>
-      <c r="L448" s="14"/>
-      <c r="M448" s="14"/>
-      <c r="N448" s="14"/>
-      <c r="O448" s="14"/>
-      <c r="P448" s="14"/>
-      <c r="Q448" s="14"/>
-      <c r="R448" s="14"/>
-      <c r="S448" s="14"/>
       <c r="T448" s="5"/>
     </row>
     <row r="449" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A449" s="4"/>
-      <c r="B449" s="14"/>
-      <c r="C449" s="14"/>
-      <c r="D449" s="14"/>
-      <c r="E449" s="14"/>
-      <c r="F449" s="14"/>
-      <c r="G449" s="14"/>
-      <c r="H449" s="14"/>
-      <c r="I449" s="14"/>
-      <c r="J449" s="14"/>
-      <c r="K449" s="14"/>
-      <c r="L449" s="14"/>
-      <c r="M449" s="14"/>
-      <c r="N449" s="14"/>
-      <c r="O449" s="14"/>
-      <c r="P449" s="14"/>
-      <c r="Q449" s="14"/>
-      <c r="R449" s="14"/>
-      <c r="S449" s="14"/>
       <c r="T449" s="5"/>
     </row>
     <row r="450" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A450" s="4"/>
-      <c r="B450" s="14"/>
-      <c r="C450" s="14"/>
-      <c r="D450" s="14"/>
-      <c r="E450" s="14"/>
-      <c r="F450" s="14"/>
-      <c r="G450" s="14"/>
-      <c r="H450" s="14"/>
-      <c r="I450" s="14"/>
-      <c r="J450" s="14"/>
-      <c r="K450" s="14"/>
-      <c r="L450" s="14"/>
-      <c r="M450" s="14"/>
-      <c r="N450" s="14"/>
-      <c r="O450" s="14"/>
-      <c r="P450" s="14"/>
-      <c r="Q450" s="14"/>
-      <c r="R450" s="14"/>
-      <c r="S450" s="14"/>
       <c r="T450" s="5"/>
     </row>
     <row r="451" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A451" s="4"/>
-      <c r="B451" s="14"/>
-      <c r="C451" s="14"/>
-      <c r="D451" s="14"/>
-      <c r="E451" s="14"/>
-      <c r="F451" s="14"/>
-      <c r="G451" s="14"/>
-      <c r="H451" s="14"/>
-      <c r="I451" s="14"/>
-      <c r="J451" s="14"/>
-      <c r="K451" s="14"/>
-      <c r="L451" s="14"/>
-      <c r="M451" s="14"/>
-      <c r="N451" s="14"/>
-      <c r="O451" s="14"/>
-      <c r="P451" s="14"/>
-      <c r="Q451" s="14"/>
-      <c r="R451" s="14"/>
-      <c r="S451" s="14"/>
       <c r="T451" s="5"/>
     </row>
     <row r="452" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A452" s="4"/>
-      <c r="B452" s="14"/>
-      <c r="C452" s="14"/>
-      <c r="D452" s="14"/>
-      <c r="E452" s="14"/>
-      <c r="F452" s="14"/>
-      <c r="G452" s="14"/>
-      <c r="H452" s="14"/>
-      <c r="I452" s="14"/>
-      <c r="J452" s="14"/>
-      <c r="K452" s="14"/>
-      <c r="L452" s="14"/>
-      <c r="M452" s="14"/>
-      <c r="N452" s="14"/>
-      <c r="O452" s="14"/>
-      <c r="P452" s="14"/>
-      <c r="Q452" s="14"/>
-      <c r="R452" s="14"/>
-      <c r="S452" s="14"/>
       <c r="T452" s="5"/>
     </row>
     <row r="453" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A453" s="4"/>
-      <c r="B453" s="14"/>
-      <c r="C453" s="14"/>
-      <c r="D453" s="14"/>
-      <c r="E453" s="14"/>
-      <c r="F453" s="14"/>
-      <c r="G453" s="14"/>
-      <c r="H453" s="14"/>
-      <c r="I453" s="14"/>
-      <c r="J453" s="14"/>
-      <c r="K453" s="14"/>
-      <c r="L453" s="14"/>
-      <c r="M453" s="14"/>
-      <c r="N453" s="14"/>
-      <c r="O453" s="14"/>
-      <c r="P453" s="14"/>
-      <c r="Q453" s="14"/>
-      <c r="R453" s="14"/>
-      <c r="S453" s="14"/>
       <c r="T453" s="5"/>
     </row>
     <row r="454" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A454" s="4"/>
-      <c r="B454" s="14"/>
-      <c r="C454" s="14"/>
-      <c r="D454" s="14"/>
-      <c r="E454" s="14"/>
-      <c r="F454" s="14"/>
-      <c r="G454" s="14"/>
-      <c r="H454" s="14"/>
-      <c r="I454" s="14"/>
-      <c r="J454" s="14"/>
-      <c r="K454" s="14"/>
-      <c r="L454" s="14"/>
-      <c r="M454" s="14"/>
-      <c r="N454" s="14"/>
-      <c r="O454" s="14"/>
-      <c r="P454" s="14"/>
-      <c r="Q454" s="14"/>
-      <c r="R454" s="14"/>
-      <c r="S454" s="14"/>
       <c r="T454" s="5"/>
     </row>
     <row r="455" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A455" s="4"/>
-      <c r="B455" s="14"/>
-      <c r="C455" s="14"/>
-      <c r="D455" s="14"/>
-      <c r="E455" s="14"/>
-      <c r="F455" s="14"/>
-      <c r="G455" s="14"/>
-      <c r="H455" s="14"/>
-      <c r="I455" s="14"/>
-      <c r="J455" s="14"/>
-      <c r="K455" s="14"/>
-      <c r="L455" s="14"/>
-      <c r="M455" s="14"/>
-      <c r="N455" s="14"/>
-      <c r="O455" s="14"/>
-      <c r="P455" s="14"/>
-      <c r="Q455" s="14"/>
-      <c r="R455" s="14"/>
-      <c r="S455" s="14"/>
       <c r="T455" s="5"/>
     </row>
     <row r="456" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A456" s="4"/>
-      <c r="B456" s="14"/>
-      <c r="C456" s="14"/>
-      <c r="D456" s="14"/>
-      <c r="E456" s="14"/>
-      <c r="F456" s="14"/>
-      <c r="G456" s="14"/>
-      <c r="H456" s="14"/>
-      <c r="I456" s="14"/>
-      <c r="J456" s="14"/>
-      <c r="K456" s="14"/>
-      <c r="L456" s="14"/>
-      <c r="M456" s="14"/>
-      <c r="N456" s="14"/>
-      <c r="O456" s="14"/>
-      <c r="P456" s="14"/>
-      <c r="Q456" s="14"/>
-      <c r="R456" s="14"/>
-      <c r="S456" s="14"/>
       <c r="T456" s="5"/>
     </row>
     <row r="457" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A457" s="4"/>
-      <c r="B457" s="14"/>
-      <c r="C457" s="14"/>
-      <c r="D457" s="14"/>
-      <c r="E457" s="14"/>
-      <c r="F457" s="14"/>
-      <c r="G457" s="14"/>
-      <c r="H457" s="14"/>
-      <c r="I457" s="14"/>
-      <c r="J457" s="14"/>
-      <c r="K457" s="14"/>
-      <c r="L457" s="14"/>
-      <c r="M457" s="14"/>
-      <c r="N457" s="14"/>
-      <c r="O457" s="14"/>
-      <c r="P457" s="14"/>
-      <c r="Q457" s="14"/>
-      <c r="R457" s="14"/>
-      <c r="S457" s="14"/>
       <c r="T457" s="5"/>
     </row>
     <row r="458" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A458" s="4"/>
-      <c r="B458" s="14"/>
-      <c r="C458" s="14"/>
-      <c r="D458" s="14"/>
-      <c r="E458" s="14"/>
-      <c r="F458" s="14"/>
-      <c r="G458" s="14"/>
-      <c r="H458" s="14"/>
-      <c r="I458" s="14"/>
-      <c r="J458" s="14"/>
-      <c r="K458" s="14"/>
-      <c r="L458" s="14"/>
-      <c r="M458" s="14"/>
-      <c r="N458" s="14"/>
-      <c r="O458" s="14"/>
-      <c r="P458" s="14"/>
-      <c r="Q458" s="14"/>
-      <c r="R458" s="14"/>
-      <c r="S458" s="14"/>
       <c r="T458" s="5"/>
     </row>
     <row r="459" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A459" s="4"/>
-      <c r="B459" s="14"/>
-      <c r="C459" s="14"/>
-      <c r="D459" s="14"/>
-      <c r="E459" s="14"/>
-      <c r="F459" s="14"/>
-      <c r="G459" s="14"/>
-      <c r="H459" s="14"/>
-      <c r="I459" s="14"/>
-      <c r="J459" s="14"/>
-      <c r="K459" s="14"/>
-      <c r="L459" s="14"/>
-      <c r="M459" s="14"/>
-      <c r="N459" s="14"/>
-      <c r="O459" s="14"/>
-      <c r="P459" s="14"/>
-      <c r="Q459" s="14"/>
-      <c r="R459" s="14"/>
-      <c r="S459" s="14"/>
       <c r="T459" s="5"/>
     </row>
     <row r="460" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A460" s="4"/>
-      <c r="B460" s="14"/>
-      <c r="C460" s="14"/>
-      <c r="D460" s="14"/>
-      <c r="E460" s="14"/>
-      <c r="F460" s="14"/>
-      <c r="G460" s="14"/>
-      <c r="H460" s="14"/>
-      <c r="I460" s="14"/>
-      <c r="J460" s="14"/>
-      <c r="K460" s="14"/>
-      <c r="L460" s="14"/>
-      <c r="M460" s="14"/>
-      <c r="N460" s="14"/>
-      <c r="O460" s="14"/>
-      <c r="P460" s="14"/>
-      <c r="Q460" s="14"/>
-      <c r="R460" s="14"/>
-      <c r="S460" s="14"/>
       <c r="T460" s="5"/>
     </row>
     <row r="461" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A461" s="4"/>
-      <c r="B461" s="14"/>
-      <c r="C461" s="14"/>
-      <c r="D461" s="14"/>
-      <c r="E461" s="14"/>
-      <c r="F461" s="14"/>
-      <c r="G461" s="14"/>
-      <c r="H461" s="14"/>
-      <c r="I461" s="14"/>
-      <c r="J461" s="14"/>
-      <c r="K461" s="14"/>
-      <c r="L461" s="14"/>
-      <c r="M461" s="14"/>
-      <c r="N461" s="14"/>
-      <c r="O461" s="14"/>
-      <c r="P461" s="14"/>
-      <c r="Q461" s="14"/>
-      <c r="R461" s="14"/>
-      <c r="S461" s="14"/>
       <c r="T461" s="5"/>
     </row>
     <row r="462" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A462" s="4"/>
-      <c r="B462" s="14"/>
-      <c r="C462" s="14"/>
-      <c r="D462" s="14"/>
-      <c r="E462" s="14"/>
-      <c r="F462" s="14"/>
-      <c r="G462" s="14"/>
-      <c r="H462" s="14"/>
-      <c r="I462" s="14"/>
-      <c r="J462" s="14"/>
-      <c r="K462" s="14"/>
-      <c r="L462" s="14"/>
-      <c r="M462" s="14"/>
-      <c r="N462" s="14"/>
-      <c r="O462" s="14"/>
-      <c r="P462" s="14"/>
-      <c r="Q462" s="14"/>
-      <c r="R462" s="14"/>
-      <c r="S462" s="14"/>
       <c r="T462" s="5"/>
     </row>
     <row r="463" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A463" s="4"/>
-      <c r="B463" s="14"/>
-      <c r="C463" s="14"/>
-      <c r="D463" s="14"/>
-      <c r="E463" s="14"/>
-      <c r="F463" s="14"/>
-      <c r="G463" s="14"/>
-      <c r="H463" s="14"/>
-      <c r="I463" s="14"/>
-      <c r="J463" s="14"/>
-      <c r="K463" s="14"/>
-      <c r="L463" s="14"/>
-      <c r="M463" s="14"/>
-      <c r="N463" s="14"/>
-      <c r="O463" s="14"/>
-      <c r="P463" s="14"/>
-      <c r="Q463" s="14"/>
-      <c r="R463" s="14"/>
-      <c r="S463" s="14"/>
       <c r="T463" s="5"/>
     </row>
     <row r="464" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A464" s="4"/>
-      <c r="B464" s="14"/>
-      <c r="C464" s="14"/>
-      <c r="D464" s="14"/>
-      <c r="E464" s="14"/>
-      <c r="F464" s="14"/>
-      <c r="G464" s="14"/>
-      <c r="H464" s="14"/>
-      <c r="I464" s="14"/>
-      <c r="J464" s="14"/>
-      <c r="K464" s="14"/>
-      <c r="L464" s="14"/>
-      <c r="M464" s="14"/>
-      <c r="N464" s="14"/>
-      <c r="O464" s="14"/>
-      <c r="P464" s="14"/>
-      <c r="Q464" s="14"/>
-      <c r="R464" s="14"/>
-      <c r="S464" s="14"/>
       <c r="T464" s="5"/>
     </row>
     <row r="465" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A465" s="4"/>
-      <c r="B465" s="14"/>
-      <c r="C465" s="14"/>
-      <c r="D465" s="14"/>
-      <c r="E465" s="14"/>
-      <c r="F465" s="14"/>
-      <c r="G465" s="14"/>
-      <c r="H465" s="14"/>
-      <c r="I465" s="14"/>
-      <c r="J465" s="14"/>
-      <c r="K465" s="14"/>
-      <c r="L465" s="14"/>
-      <c r="M465" s="14"/>
-      <c r="N465" s="14"/>
-      <c r="O465" s="14"/>
-      <c r="P465" s="14"/>
-      <c r="Q465" s="14"/>
-      <c r="R465" s="14"/>
-      <c r="S465" s="14"/>
       <c r="T465" s="5"/>
     </row>
     <row r="466" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A466" s="4"/>
-      <c r="B466" s="14"/>
-      <c r="C466" s="14"/>
-      <c r="D466" s="14"/>
-      <c r="E466" s="14"/>
-      <c r="F466" s="14"/>
-      <c r="G466" s="14"/>
-      <c r="H466" s="14"/>
-      <c r="I466" s="14"/>
-      <c r="J466" s="14"/>
-      <c r="K466" s="14"/>
-      <c r="L466" s="14"/>
-      <c r="M466" s="14"/>
-      <c r="N466" s="14"/>
-      <c r="O466" s="14"/>
-      <c r="P466" s="14"/>
-      <c r="Q466" s="14"/>
-      <c r="R466" s="14"/>
-      <c r="S466" s="14"/>
       <c r="T466" s="5"/>
     </row>
     <row r="467" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A467" s="4"/>
-      <c r="B467" s="14"/>
-      <c r="C467" s="14"/>
-      <c r="D467" s="14"/>
-      <c r="E467" s="14"/>
-      <c r="F467" s="14"/>
-      <c r="G467" s="14"/>
-      <c r="H467" s="14"/>
-      <c r="I467" s="14"/>
-      <c r="J467" s="14"/>
-      <c r="K467" s="14"/>
-      <c r="L467" s="14"/>
-      <c r="M467" s="14"/>
-      <c r="N467" s="14"/>
-      <c r="O467" s="14"/>
-      <c r="P467" s="14"/>
-      <c r="Q467" s="14"/>
-      <c r="R467" s="14"/>
-      <c r="S467" s="14"/>
       <c r="T467" s="5"/>
     </row>
     <row r="468" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A468" s="4"/>
-      <c r="B468" s="14"/>
-      <c r="C468" s="14"/>
-      <c r="D468" s="14"/>
-      <c r="E468" s="14"/>
-      <c r="F468" s="14"/>
-      <c r="G468" s="14"/>
-      <c r="H468" s="14"/>
-      <c r="I468" s="14"/>
-      <c r="J468" s="14"/>
-      <c r="K468" s="14"/>
-      <c r="L468" s="14"/>
-      <c r="M468" s="14"/>
-      <c r="N468" s="14"/>
-      <c r="O468" s="14"/>
-      <c r="P468" s="14"/>
-      <c r="Q468" s="14"/>
-      <c r="R468" s="14"/>
-      <c r="S468" s="14"/>
       <c r="T468" s="5"/>
     </row>
     <row r="469" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A469" s="4"/>
-      <c r="B469" s="14"/>
-      <c r="C469" s="14"/>
-      <c r="D469" s="14"/>
-      <c r="E469" s="14"/>
-      <c r="F469" s="14"/>
-      <c r="G469" s="14"/>
-      <c r="H469" s="14"/>
-      <c r="I469" s="14"/>
-      <c r="J469" s="14"/>
-      <c r="K469" s="14"/>
-      <c r="L469" s="14"/>
-      <c r="M469" s="14"/>
-      <c r="N469" s="14"/>
-      <c r="O469" s="14"/>
-      <c r="P469" s="14"/>
-      <c r="Q469" s="14"/>
-      <c r="R469" s="14"/>
-      <c r="S469" s="14"/>
       <c r="T469" s="5"/>
     </row>
     <row r="470" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A470" s="4"/>
-      <c r="B470" s="14"/>
-      <c r="C470" s="14"/>
-      <c r="D470" s="14"/>
-      <c r="E470" s="14"/>
-      <c r="F470" s="14"/>
-      <c r="G470" s="14"/>
-      <c r="H470" s="14"/>
-      <c r="I470" s="14"/>
-      <c r="J470" s="14"/>
-      <c r="K470" s="14"/>
-      <c r="L470" s="14"/>
-      <c r="M470" s="14"/>
-      <c r="N470" s="14"/>
-      <c r="O470" s="14"/>
-      <c r="P470" s="14"/>
-      <c r="Q470" s="14"/>
-      <c r="R470" s="14"/>
-      <c r="S470" s="14"/>
       <c r="T470" s="5"/>
     </row>
     <row r="471" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A471" s="4"/>
-      <c r="B471" s="14"/>
-      <c r="C471" s="14"/>
-      <c r="D471" s="14"/>
-      <c r="E471" s="14"/>
-      <c r="F471" s="14"/>
-      <c r="G471" s="14"/>
-      <c r="H471" s="14"/>
-      <c r="I471" s="14"/>
-      <c r="J471" s="14"/>
-      <c r="K471" s="14"/>
-      <c r="L471" s="14"/>
-      <c r="M471" s="14"/>
-      <c r="N471" s="14"/>
-      <c r="O471" s="14"/>
-      <c r="P471" s="14"/>
-      <c r="Q471" s="14"/>
-      <c r="R471" s="14"/>
-      <c r="S471" s="14"/>
       <c r="T471" s="5"/>
     </row>
     <row r="472" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A472" s="4"/>
-      <c r="B472" s="14"/>
-      <c r="C472" s="14"/>
-      <c r="D472" s="14"/>
-      <c r="E472" s="14"/>
-      <c r="F472" s="14"/>
-      <c r="G472" s="14"/>
-      <c r="H472" s="14"/>
-      <c r="I472" s="14"/>
-      <c r="J472" s="14"/>
-      <c r="K472" s="14"/>
-      <c r="L472" s="14"/>
-      <c r="M472" s="14"/>
-      <c r="N472" s="14"/>
-      <c r="O472" s="14"/>
-      <c r="P472" s="14"/>
-      <c r="Q472" s="14"/>
-      <c r="R472" s="14"/>
-      <c r="S472" s="14"/>
       <c r="T472" s="5"/>
     </row>
     <row r="473" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A473" s="4"/>
-      <c r="B473" s="14"/>
-      <c r="C473" s="14"/>
-      <c r="D473" s="14"/>
-      <c r="E473" s="14"/>
-      <c r="F473" s="14"/>
-      <c r="G473" s="14"/>
-      <c r="H473" s="14"/>
-      <c r="I473" s="14"/>
-      <c r="J473" s="14"/>
-      <c r="K473" s="14"/>
-      <c r="L473" s="14"/>
-      <c r="M473" s="14"/>
-      <c r="N473" s="14"/>
-      <c r="O473" s="14"/>
-      <c r="P473" s="14"/>
-      <c r="Q473" s="14"/>
-      <c r="R473" s="14"/>
-      <c r="S473" s="14"/>
       <c r="T473" s="5"/>
     </row>
     <row r="474" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A474" s="4"/>
-      <c r="B474" s="14"/>
-      <c r="C474" s="14"/>
-      <c r="D474" s="14"/>
-      <c r="E474" s="14"/>
-      <c r="F474" s="14"/>
-      <c r="G474" s="14"/>
-      <c r="H474" s="14"/>
-      <c r="I474" s="14"/>
-      <c r="J474" s="14"/>
-      <c r="K474" s="14"/>
-      <c r="L474" s="14"/>
-      <c r="M474" s="14"/>
-      <c r="N474" s="14"/>
-      <c r="O474" s="14"/>
-      <c r="P474" s="14"/>
-      <c r="Q474" s="14"/>
-      <c r="R474" s="14"/>
-      <c r="S474" s="14"/>
       <c r="T474" s="5"/>
     </row>
     <row r="475" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A475" s="4"/>
-      <c r="B475" s="14"/>
-      <c r="C475" s="14"/>
-      <c r="D475" s="14"/>
-      <c r="E475" s="14"/>
-      <c r="F475" s="14"/>
-      <c r="G475" s="14"/>
-      <c r="H475" s="14"/>
-      <c r="I475" s="14"/>
-      <c r="J475" s="14"/>
-      <c r="K475" s="14"/>
-      <c r="L475" s="14"/>
-      <c r="M475" s="14"/>
-      <c r="N475" s="14"/>
-      <c r="O475" s="14"/>
-      <c r="P475" s="14"/>
-      <c r="Q475" s="14"/>
-      <c r="R475" s="14"/>
-      <c r="S475" s="14"/>
       <c r="T475" s="5"/>
     </row>
     <row r="476" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A476" s="4"/>
-      <c r="B476" s="14"/>
-      <c r="C476" s="14"/>
-      <c r="D476" s="14"/>
-      <c r="E476" s="14"/>
-      <c r="F476" s="14"/>
-      <c r="G476" s="14"/>
-      <c r="H476" s="14"/>
-      <c r="I476" s="14"/>
-      <c r="J476" s="14"/>
-      <c r="K476" s="14"/>
-      <c r="L476" s="14"/>
-      <c r="M476" s="14"/>
-      <c r="N476" s="14"/>
-      <c r="O476" s="14"/>
-      <c r="P476" s="14"/>
-      <c r="Q476" s="14"/>
-      <c r="R476" s="14"/>
-      <c r="S476" s="14"/>
       <c r="T476" s="5"/>
     </row>
     <row r="477" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A477" s="4"/>
-      <c r="B477" s="14"/>
-      <c r="C477" s="14"/>
-      <c r="D477" s="14"/>
-      <c r="E477" s="14"/>
-      <c r="F477" s="14"/>
-      <c r="G477" s="14"/>
-      <c r="H477" s="14"/>
-      <c r="I477" s="14"/>
-      <c r="J477" s="14"/>
-      <c r="K477" s="14"/>
-      <c r="L477" s="14"/>
-      <c r="M477" s="14"/>
-      <c r="N477" s="14"/>
-      <c r="O477" s="14"/>
-      <c r="P477" s="14"/>
-      <c r="Q477" s="14"/>
-      <c r="R477" s="14"/>
-      <c r="S477" s="14"/>
       <c r="T477" s="5"/>
     </row>
     <row r="478" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A478" s="4"/>
-      <c r="B478" s="14"/>
-      <c r="C478" s="14"/>
-      <c r="D478" s="14"/>
-      <c r="E478" s="14"/>
-      <c r="F478" s="14"/>
-      <c r="G478" s="14"/>
-      <c r="H478" s="14"/>
-      <c r="I478" s="14"/>
-      <c r="J478" s="14"/>
-      <c r="K478" s="14"/>
-      <c r="L478" s="14"/>
-      <c r="M478" s="14"/>
-      <c r="N478" s="14"/>
-      <c r="O478" s="14"/>
-      <c r="P478" s="14"/>
-      <c r="Q478" s="14"/>
-      <c r="R478" s="14"/>
-      <c r="S478" s="14"/>
       <c r="T478" s="5"/>
     </row>
     <row r="479" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A479" s="4"/>
-      <c r="B479" s="14"/>
-      <c r="C479" s="14"/>
-      <c r="D479" s="14"/>
-      <c r="E479" s="14"/>
-      <c r="F479" s="14"/>
-      <c r="G479" s="14"/>
-      <c r="H479" s="14"/>
-      <c r="I479" s="14"/>
-      <c r="J479" s="14"/>
-      <c r="K479" s="14"/>
-      <c r="L479" s="14"/>
-      <c r="M479" s="14"/>
-      <c r="N479" s="14"/>
-      <c r="O479" s="14"/>
-      <c r="P479" s="14"/>
-      <c r="Q479" s="14"/>
-      <c r="R479" s="14"/>
-      <c r="S479" s="14"/>
       <c r="T479" s="5"/>
     </row>
     <row r="480" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A480" s="4"/>
-      <c r="B480" s="14"/>
-      <c r="C480" s="14"/>
-      <c r="D480" s="14"/>
-      <c r="E480" s="14"/>
-      <c r="F480" s="14"/>
-      <c r="G480" s="14"/>
-      <c r="H480" s="14"/>
-      <c r="I480" s="14"/>
-      <c r="J480" s="14"/>
-      <c r="K480" s="14"/>
-      <c r="L480" s="14"/>
-      <c r="M480" s="14"/>
-      <c r="N480" s="14"/>
-      <c r="O480" s="14"/>
-      <c r="P480" s="14"/>
-      <c r="Q480" s="14"/>
-      <c r="R480" s="14"/>
-      <c r="S480" s="14"/>
       <c r="T480" s="5"/>
     </row>
     <row r="481" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A481" s="4"/>
-      <c r="B481" s="14"/>
-      <c r="C481" s="14"/>
-      <c r="D481" s="14"/>
-      <c r="E481" s="14"/>
-      <c r="F481" s="14"/>
-      <c r="G481" s="14"/>
-      <c r="H481" s="14"/>
-      <c r="I481" s="14"/>
-      <c r="J481" s="14"/>
-      <c r="K481" s="14"/>
-      <c r="L481" s="14"/>
-      <c r="M481" s="14"/>
-      <c r="N481" s="14"/>
-      <c r="O481" s="14"/>
-      <c r="P481" s="14"/>
-      <c r="Q481" s="14"/>
-      <c r="R481" s="14"/>
-      <c r="S481" s="14"/>
       <c r="T481" s="5"/>
     </row>
     <row r="482" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A482" s="4"/>
-      <c r="B482" s="14"/>
-      <c r="C482" s="14"/>
-      <c r="D482" s="14"/>
-      <c r="E482" s="14"/>
-      <c r="F482" s="14"/>
-      <c r="G482" s="14"/>
-      <c r="H482" s="14"/>
-      <c r="I482" s="14"/>
-      <c r="J482" s="14"/>
-      <c r="K482" s="14"/>
-      <c r="L482" s="14"/>
-      <c r="M482" s="14"/>
-      <c r="N482" s="14"/>
-      <c r="O482" s="14"/>
-      <c r="P482" s="14"/>
-      <c r="Q482" s="14"/>
-      <c r="R482" s="14"/>
-      <c r="S482" s="14"/>
       <c r="T482" s="5"/>
     </row>
     <row r="483" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A483" s="4"/>
-      <c r="B483" s="14"/>
-      <c r="C483" s="14"/>
-      <c r="D483" s="14"/>
-      <c r="E483" s="14"/>
-      <c r="F483" s="14"/>
-      <c r="G483" s="14"/>
-      <c r="H483" s="14"/>
-      <c r="I483" s="14"/>
-      <c r="J483" s="14"/>
-      <c r="K483" s="14"/>
-      <c r="L483" s="14"/>
-      <c r="M483" s="14"/>
-      <c r="N483" s="14"/>
-      <c r="O483" s="14"/>
-      <c r="P483" s="14"/>
-      <c r="Q483" s="14"/>
-      <c r="R483" s="14"/>
-      <c r="S483" s="14"/>
       <c r="T483" s="5"/>
     </row>
     <row r="484" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A484" s="4"/>
-      <c r="B484" s="14"/>
-      <c r="C484" s="14"/>
-      <c r="D484" s="14"/>
-      <c r="E484" s="14"/>
-      <c r="F484" s="14"/>
-      <c r="G484" s="14"/>
-      <c r="H484" s="14"/>
-      <c r="I484" s="14"/>
-      <c r="J484" s="14"/>
-      <c r="K484" s="14"/>
-      <c r="L484" s="14"/>
-      <c r="M484" s="14"/>
-      <c r="N484" s="14"/>
-      <c r="O484" s="14"/>
-      <c r="P484" s="14"/>
-      <c r="Q484" s="14"/>
-      <c r="R484" s="14"/>
-      <c r="S484" s="14"/>
       <c r="T484" s="5"/>
     </row>
     <row r="485" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A485" s="4"/>
-      <c r="B485" s="14"/>
-      <c r="C485" s="14"/>
-      <c r="D485" s="14"/>
-      <c r="E485" s="14"/>
-      <c r="F485" s="14"/>
-      <c r="G485" s="14"/>
-      <c r="H485" s="14"/>
-      <c r="I485" s="14"/>
-      <c r="J485" s="14"/>
-      <c r="K485" s="14"/>
-      <c r="L485" s="14"/>
-      <c r="M485" s="14"/>
-      <c r="N485" s="14"/>
-      <c r="O485" s="14"/>
-      <c r="P485" s="14"/>
-      <c r="Q485" s="14"/>
-      <c r="R485" s="14"/>
-      <c r="S485" s="14"/>
       <c r="T485" s="5"/>
     </row>
     <row r="486" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A486" s="4"/>
-      <c r="B486" s="14"/>
-      <c r="C486" s="14"/>
-      <c r="D486" s="14"/>
-      <c r="E486" s="14"/>
-      <c r="F486" s="14"/>
-      <c r="G486" s="14"/>
-      <c r="H486" s="14"/>
-      <c r="I486" s="14"/>
-      <c r="J486" s="14"/>
-      <c r="K486" s="14"/>
-      <c r="L486" s="14"/>
-      <c r="M486" s="14"/>
-      <c r="N486" s="14"/>
-      <c r="O486" s="14"/>
-      <c r="P486" s="14"/>
-      <c r="Q486" s="14"/>
-      <c r="R486" s="14"/>
-      <c r="S486" s="14"/>
       <c r="T486" s="5"/>
     </row>
     <row r="487" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A487" s="4"/>
-      <c r="B487" s="14"/>
-      <c r="C487" s="14"/>
-      <c r="D487" s="14"/>
-      <c r="E487" s="14"/>
-      <c r="F487" s="14"/>
-      <c r="G487" s="14"/>
-      <c r="H487" s="14"/>
-      <c r="I487" s="14"/>
-      <c r="J487" s="14"/>
-      <c r="K487" s="14"/>
-      <c r="L487" s="14"/>
-      <c r="M487" s="14"/>
-      <c r="N487" s="14"/>
-      <c r="O487" s="14"/>
-      <c r="P487" s="14"/>
-      <c r="Q487" s="14"/>
-      <c r="R487" s="14"/>
-      <c r="S487" s="14"/>
       <c r="T487" s="5"/>
     </row>
     <row r="488" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A488" s="4"/>
-      <c r="B488" s="14"/>
-      <c r="C488" s="14"/>
-      <c r="D488" s="14"/>
-      <c r="E488" s="14"/>
-      <c r="F488" s="14"/>
-      <c r="G488" s="14"/>
-      <c r="H488" s="14"/>
-      <c r="I488" s="14"/>
-      <c r="J488" s="14"/>
-      <c r="K488" s="14"/>
-      <c r="L488" s="14"/>
-      <c r="M488" s="14"/>
-      <c r="N488" s="14"/>
-      <c r="O488" s="14"/>
-      <c r="P488" s="14"/>
-      <c r="Q488" s="14"/>
-      <c r="R488" s="14"/>
-      <c r="S488" s="14"/>
       <c r="T488" s="5"/>
     </row>
     <row r="489" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A489" s="4"/>
-      <c r="B489" s="14"/>
-      <c r="C489" s="14"/>
-      <c r="D489" s="14"/>
-      <c r="E489" s="14"/>
-      <c r="F489" s="14"/>
-      <c r="G489" s="14"/>
-      <c r="H489" s="14"/>
-      <c r="I489" s="14"/>
-      <c r="J489" s="14"/>
-      <c r="K489" s="14"/>
-      <c r="L489" s="14"/>
-      <c r="M489" s="14"/>
-      <c r="N489" s="14"/>
-      <c r="O489" s="14"/>
-      <c r="P489" s="14"/>
-      <c r="Q489" s="14"/>
-      <c r="R489" s="14"/>
-      <c r="S489" s="14"/>
       <c r="T489" s="5"/>
     </row>
     <row r="490" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A490" s="4"/>
-      <c r="B490" s="14"/>
-      <c r="C490" s="14"/>
-      <c r="D490" s="14"/>
-      <c r="E490" s="14"/>
-      <c r="F490" s="14"/>
-      <c r="G490" s="14"/>
-      <c r="H490" s="14"/>
-      <c r="I490" s="14"/>
-      <c r="J490" s="14"/>
-      <c r="K490" s="14"/>
-      <c r="L490" s="14"/>
-      <c r="M490" s="14"/>
-      <c r="N490" s="14"/>
-      <c r="O490" s="14"/>
-      <c r="P490" s="14"/>
-      <c r="Q490" s="14"/>
-      <c r="R490" s="14"/>
-      <c r="S490" s="14"/>
       <c r="T490" s="5"/>
     </row>
     <row r="491" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A491" s="4"/>
-      <c r="B491" s="14"/>
-      <c r="C491" s="14"/>
-      <c r="D491" s="14"/>
-      <c r="E491" s="14"/>
-      <c r="F491" s="14"/>
-      <c r="G491" s="14"/>
-      <c r="H491" s="14"/>
-      <c r="I491" s="14"/>
-      <c r="J491" s="14"/>
-      <c r="K491" s="14"/>
-      <c r="L491" s="14"/>
-      <c r="M491" s="14"/>
-      <c r="N491" s="14"/>
-      <c r="O491" s="14"/>
-      <c r="P491" s="14"/>
-      <c r="Q491" s="14"/>
-      <c r="R491" s="14"/>
-      <c r="S491" s="14"/>
       <c r="T491" s="5"/>
     </row>
     <row r="492" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A492" s="4"/>
-      <c r="B492" s="14"/>
-      <c r="C492" s="14"/>
-      <c r="D492" s="14"/>
-      <c r="E492" s="14"/>
-      <c r="F492" s="14"/>
-      <c r="G492" s="14"/>
-      <c r="H492" s="14"/>
-      <c r="I492" s="14"/>
-      <c r="J492" s="14"/>
-      <c r="K492" s="14"/>
-      <c r="L492" s="14"/>
-      <c r="M492" s="14"/>
-      <c r="N492" s="14"/>
-      <c r="O492" s="14"/>
-      <c r="P492" s="14"/>
-      <c r="Q492" s="14"/>
-      <c r="R492" s="14"/>
-      <c r="S492" s="14"/>
       <c r="T492" s="5"/>
     </row>
     <row r="493" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A493" s="4"/>
-      <c r="B493" s="14"/>
-      <c r="C493" s="14"/>
-      <c r="D493" s="14"/>
-      <c r="E493" s="14"/>
-      <c r="F493" s="14"/>
-      <c r="G493" s="14"/>
-      <c r="H493" s="14"/>
-      <c r="I493" s="14"/>
-      <c r="J493" s="14"/>
-      <c r="K493" s="14"/>
-      <c r="L493" s="14"/>
-      <c r="M493" s="14"/>
-      <c r="N493" s="14"/>
-      <c r="O493" s="14"/>
-      <c r="P493" s="14"/>
-      <c r="Q493" s="14"/>
-      <c r="R493" s="14"/>
-      <c r="S493" s="14"/>
       <c r="T493" s="5"/>
     </row>
     <row r="494" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A494" s="4"/>
-      <c r="B494" s="14"/>
-      <c r="C494" s="14"/>
-      <c r="D494" s="14"/>
-      <c r="E494" s="14"/>
-      <c r="F494" s="14"/>
-      <c r="G494" s="14"/>
-      <c r="H494" s="14"/>
-      <c r="I494" s="14"/>
-      <c r="J494" s="14"/>
-      <c r="K494" s="14"/>
-      <c r="L494" s="14"/>
-      <c r="M494" s="14"/>
-      <c r="N494" s="14"/>
-      <c r="O494" s="14"/>
-      <c r="P494" s="14"/>
-      <c r="Q494" s="14"/>
-      <c r="R494" s="14"/>
-      <c r="S494" s="14"/>
       <c r="T494" s="5"/>
     </row>
     <row r="495" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A495" s="4"/>
-      <c r="B495" s="14"/>
-      <c r="C495" s="14"/>
-      <c r="D495" s="14"/>
-      <c r="E495" s="14"/>
-      <c r="F495" s="14"/>
-      <c r="G495" s="14"/>
-      <c r="H495" s="14"/>
-      <c r="I495" s="14"/>
-      <c r="J495" s="14"/>
-      <c r="K495" s="14"/>
-      <c r="L495" s="14"/>
-      <c r="M495" s="14"/>
-      <c r="N495" s="14"/>
-      <c r="O495" s="14"/>
-      <c r="P495" s="14"/>
-      <c r="Q495" s="14"/>
-      <c r="R495" s="14"/>
-      <c r="S495" s="14"/>
       <c r="T495" s="5"/>
     </row>
     <row r="496" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A496" s="4"/>
-      <c r="B496" s="14"/>
-      <c r="C496" s="14"/>
-      <c r="D496" s="14"/>
-      <c r="E496" s="14"/>
-      <c r="F496" s="14"/>
-      <c r="G496" s="14"/>
-      <c r="H496" s="14"/>
-      <c r="I496" s="14"/>
-      <c r="J496" s="14"/>
-      <c r="K496" s="14"/>
-      <c r="L496" s="14"/>
-      <c r="M496" s="14"/>
-      <c r="N496" s="14"/>
-      <c r="O496" s="14"/>
-      <c r="P496" s="14"/>
-      <c r="Q496" s="14"/>
-      <c r="R496" s="14"/>
-      <c r="S496" s="14"/>
       <c r="T496" s="5"/>
     </row>
     <row r="497" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A497" s="4"/>
-      <c r="B497" s="14"/>
-      <c r="C497" s="14"/>
-      <c r="D497" s="14"/>
-      <c r="E497" s="14"/>
-      <c r="F497" s="14"/>
-      <c r="G497" s="14"/>
-      <c r="H497" s="14"/>
-      <c r="I497" s="14"/>
-      <c r="J497" s="14"/>
-      <c r="K497" s="14"/>
-      <c r="L497" s="14"/>
-      <c r="M497" s="14"/>
-      <c r="N497" s="14"/>
-      <c r="O497" s="14"/>
-      <c r="P497" s="14"/>
-      <c r="Q497" s="14"/>
-      <c r="R497" s="14"/>
-      <c r="S497" s="14"/>
       <c r="T497" s="5"/>
     </row>
     <row r="498" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A498" s="4"/>
-      <c r="B498" s="14"/>
-      <c r="C498" s="14"/>
-      <c r="D498" s="14"/>
-      <c r="E498" s="14"/>
-      <c r="F498" s="14"/>
-      <c r="G498" s="14"/>
-      <c r="H498" s="14"/>
-      <c r="I498" s="14"/>
-      <c r="J498" s="14"/>
-      <c r="K498" s="14"/>
-      <c r="L498" s="14"/>
-      <c r="M498" s="14"/>
-      <c r="N498" s="14"/>
-      <c r="O498" s="14"/>
-      <c r="P498" s="14"/>
-      <c r="Q498" s="14"/>
-      <c r="R498" s="14"/>
-      <c r="S498" s="14"/>
       <c r="T498" s="5"/>
     </row>
     <row r="499" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A499" s="4"/>
-      <c r="B499" s="14"/>
-      <c r="C499" s="14"/>
-      <c r="D499" s="14"/>
-      <c r="E499" s="14"/>
-      <c r="F499" s="14"/>
-      <c r="G499" s="14"/>
-      <c r="H499" s="14"/>
-      <c r="I499" s="14"/>
-      <c r="J499" s="14"/>
-      <c r="K499" s="14"/>
-      <c r="L499" s="14"/>
-      <c r="M499" s="14"/>
-      <c r="N499" s="14"/>
-      <c r="O499" s="14"/>
-      <c r="P499" s="14"/>
-      <c r="Q499" s="14"/>
-      <c r="R499" s="14"/>
-      <c r="S499" s="14"/>
       <c r="T499" s="5"/>
     </row>
     <row r="500" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A500" s="4"/>
-      <c r="B500" s="14"/>
-      <c r="C500" s="14"/>
-      <c r="D500" s="14"/>
-      <c r="E500" s="14"/>
-      <c r="F500" s="14"/>
-      <c r="G500" s="14"/>
-      <c r="H500" s="14"/>
-      <c r="I500" s="14"/>
-      <c r="J500" s="14"/>
-      <c r="K500" s="14"/>
-      <c r="L500" s="14"/>
-      <c r="M500" s="14"/>
-      <c r="N500" s="14"/>
-      <c r="O500" s="14"/>
-      <c r="P500" s="14"/>
-      <c r="Q500" s="14"/>
-      <c r="R500" s="14"/>
-      <c r="S500" s="14"/>
       <c r="T500" s="5"/>
     </row>
     <row r="501" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A501" s="4"/>
-      <c r="B501" s="14"/>
-      <c r="C501" s="14"/>
-      <c r="D501" s="14"/>
-      <c r="E501" s="14"/>
-      <c r="F501" s="14"/>
-      <c r="G501" s="14"/>
-      <c r="H501" s="14"/>
-      <c r="I501" s="14"/>
-      <c r="J501" s="14"/>
-      <c r="K501" s="14"/>
-      <c r="L501" s="14"/>
-      <c r="M501" s="14"/>
-      <c r="N501" s="14"/>
-      <c r="O501" s="14"/>
-      <c r="P501" s="14"/>
-      <c r="Q501" s="14"/>
-      <c r="R501" s="14"/>
-      <c r="S501" s="14"/>
       <c r="T501" s="5"/>
     </row>
     <row r="502" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A502" s="4"/>
-      <c r="B502" s="14"/>
-      <c r="C502" s="14"/>
-      <c r="D502" s="14"/>
-      <c r="E502" s="14"/>
-      <c r="F502" s="14"/>
-      <c r="G502" s="14"/>
-      <c r="H502" s="14"/>
-      <c r="I502" s="14"/>
-      <c r="J502" s="14"/>
-      <c r="K502" s="14"/>
-      <c r="L502" s="14"/>
-      <c r="M502" s="14"/>
-      <c r="N502" s="14"/>
-      <c r="O502" s="14"/>
-      <c r="P502" s="14"/>
-      <c r="Q502" s="14"/>
-      <c r="R502" s="14"/>
-      <c r="S502" s="14"/>
       <c r="T502" s="5"/>
     </row>
     <row r="503" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A503" s="4"/>
-      <c r="B503" s="14"/>
-      <c r="C503" s="14"/>
-      <c r="D503" s="14"/>
-      <c r="E503" s="14"/>
-      <c r="F503" s="14"/>
-      <c r="G503" s="14"/>
-      <c r="H503" s="14"/>
-      <c r="I503" s="14"/>
-      <c r="J503" s="14"/>
-      <c r="K503" s="14"/>
-      <c r="L503" s="14"/>
-      <c r="M503" s="14"/>
-      <c r="N503" s="14"/>
-      <c r="O503" s="14"/>
-      <c r="P503" s="14"/>
-      <c r="Q503" s="14"/>
-      <c r="R503" s="14"/>
-      <c r="S503" s="14"/>
       <c r="T503" s="5"/>
     </row>
     <row r="504" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A504" s="4"/>
-      <c r="B504" s="14"/>
-      <c r="C504" s="14"/>
-      <c r="D504" s="14"/>
-      <c r="E504" s="14"/>
-      <c r="F504" s="14"/>
-      <c r="G504" s="14"/>
-      <c r="H504" s="14"/>
-      <c r="I504" s="14"/>
-      <c r="J504" s="14"/>
-      <c r="K504" s="14"/>
-      <c r="L504" s="14"/>
-      <c r="M504" s="14"/>
-      <c r="N504" s="14"/>
-      <c r="O504" s="14"/>
-      <c r="P504" s="14"/>
-      <c r="Q504" s="14"/>
-      <c r="R504" s="14"/>
-      <c r="S504" s="14"/>
       <c r="T504" s="5"/>
     </row>
     <row r="505" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A505" s="4"/>
-      <c r="B505" s="14"/>
-      <c r="C505" s="14"/>
-      <c r="D505" s="14"/>
-      <c r="E505" s="14"/>
-      <c r="F505" s="14"/>
-      <c r="G505" s="14"/>
-      <c r="H505" s="14"/>
-      <c r="I505" s="14"/>
-      <c r="J505" s="14"/>
-      <c r="K505" s="14"/>
-      <c r="L505" s="14"/>
-      <c r="M505" s="14"/>
-      <c r="N505" s="14"/>
-      <c r="O505" s="14"/>
-      <c r="P505" s="14"/>
-      <c r="Q505" s="14"/>
-      <c r="R505" s="14"/>
-      <c r="S505" s="14"/>
       <c r="T505" s="5"/>
     </row>
     <row r="506" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A506" s="4"/>
-      <c r="B506" s="14"/>
-      <c r="C506" s="14"/>
-      <c r="D506" s="14"/>
-      <c r="E506" s="14"/>
-      <c r="F506" s="14"/>
-      <c r="G506" s="14"/>
-      <c r="H506" s="14"/>
-      <c r="I506" s="14"/>
-      <c r="J506" s="14"/>
-      <c r="K506" s="14"/>
-      <c r="L506" s="14"/>
-      <c r="M506" s="14"/>
-      <c r="N506" s="14"/>
-      <c r="O506" s="14"/>
-      <c r="P506" s="14"/>
-      <c r="Q506" s="14"/>
-      <c r="R506" s="14"/>
-      <c r="S506" s="14"/>
       <c r="T506" s="5"/>
     </row>
     <row r="507" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A507" s="4"/>
-      <c r="B507" s="14"/>
-      <c r="C507" s="14"/>
-      <c r="D507" s="14"/>
-      <c r="E507" s="14"/>
-      <c r="F507" s="14"/>
-      <c r="G507" s="14"/>
-      <c r="H507" s="14"/>
-      <c r="I507" s="14"/>
-      <c r="J507" s="14"/>
-      <c r="K507" s="14"/>
-      <c r="L507" s="14"/>
-      <c r="M507" s="14"/>
-      <c r="N507" s="14"/>
-      <c r="O507" s="14"/>
-      <c r="P507" s="14"/>
-      <c r="Q507" s="14"/>
-      <c r="R507" s="14"/>
-      <c r="S507" s="14"/>
       <c r="T507" s="5"/>
     </row>
     <row r="508" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A508" s="4"/>
-      <c r="B508" s="14"/>
-      <c r="C508" s="14"/>
-      <c r="D508" s="14"/>
-      <c r="E508" s="14"/>
-      <c r="F508" s="14"/>
-      <c r="G508" s="14"/>
-      <c r="H508" s="14"/>
-      <c r="I508" s="14"/>
-      <c r="J508" s="14"/>
-      <c r="K508" s="14"/>
-      <c r="L508" s="14"/>
-      <c r="M508" s="14"/>
-      <c r="N508" s="14"/>
-      <c r="O508" s="14"/>
-      <c r="P508" s="14"/>
-      <c r="Q508" s="14"/>
-      <c r="R508" s="14"/>
-      <c r="S508" s="14"/>
       <c r="T508" s="5"/>
     </row>
     <row r="509" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A509" s="4"/>
-      <c r="B509" s="14"/>
-      <c r="C509" s="14"/>
-      <c r="D509" s="14"/>
-      <c r="E509" s="14"/>
-      <c r="F509" s="14"/>
-      <c r="G509" s="14"/>
-      <c r="H509" s="14"/>
-      <c r="I509" s="14"/>
-      <c r="J509" s="14"/>
-      <c r="K509" s="14"/>
-      <c r="L509" s="14"/>
-      <c r="M509" s="14"/>
-      <c r="N509" s="14"/>
-      <c r="O509" s="14"/>
-      <c r="P509" s="14"/>
-      <c r="Q509" s="14"/>
-      <c r="R509" s="14"/>
-      <c r="S509" s="14"/>
       <c r="T509" s="5"/>
     </row>
     <row r="510" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A510" s="4"/>
-      <c r="B510" s="14"/>
-      <c r="C510" s="14"/>
-      <c r="D510" s="14"/>
-      <c r="E510" s="14"/>
-      <c r="F510" s="14"/>
-      <c r="G510" s="14"/>
-      <c r="H510" s="14"/>
-      <c r="I510" s="14"/>
-      <c r="J510" s="14"/>
-      <c r="K510" s="14"/>
-      <c r="L510" s="14"/>
-      <c r="M510" s="14"/>
-      <c r="N510" s="14"/>
-      <c r="O510" s="14"/>
-      <c r="P510" s="14"/>
-      <c r="Q510" s="14"/>
-      <c r="R510" s="14"/>
-      <c r="S510" s="14"/>
       <c r="T510" s="5"/>
     </row>
     <row r="511" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A511" s="4"/>
-      <c r="B511" s="14"/>
-      <c r="C511" s="14"/>
-      <c r="D511" s="14"/>
-      <c r="E511" s="14"/>
-      <c r="F511" s="14"/>
-      <c r="G511" s="14"/>
-      <c r="H511" s="14"/>
-      <c r="I511" s="14"/>
-      <c r="J511" s="14"/>
-      <c r="K511" s="14"/>
-      <c r="L511" s="14"/>
-      <c r="M511" s="14"/>
-      <c r="N511" s="14"/>
-      <c r="O511" s="14"/>
-      <c r="P511" s="14"/>
-      <c r="Q511" s="14"/>
-      <c r="R511" s="14"/>
-      <c r="S511" s="14"/>
       <c r="T511" s="5"/>
     </row>
     <row r="512" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A512" s="4"/>
-      <c r="B512" s="14"/>
-      <c r="C512" s="14"/>
-      <c r="D512" s="14"/>
-      <c r="E512" s="14"/>
-      <c r="F512" s="14"/>
-      <c r="G512" s="14"/>
-      <c r="H512" s="14"/>
-      <c r="I512" s="14"/>
-      <c r="J512" s="14"/>
-      <c r="K512" s="14"/>
-      <c r="L512" s="14"/>
-      <c r="M512" s="14"/>
-      <c r="N512" s="14"/>
-      <c r="O512" s="14"/>
-      <c r="P512" s="14"/>
-      <c r="Q512" s="14"/>
-      <c r="R512" s="14"/>
-      <c r="S512" s="14"/>
       <c r="T512" s="5"/>
     </row>
     <row r="513" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A513" s="4"/>
-      <c r="B513" s="14"/>
-      <c r="C513" s="14"/>
-      <c r="D513" s="14"/>
-      <c r="E513" s="14"/>
-      <c r="F513" s="14"/>
-      <c r="G513" s="14"/>
-      <c r="H513" s="14"/>
-      <c r="I513" s="14"/>
-      <c r="J513" s="14"/>
-      <c r="K513" s="14"/>
-      <c r="L513" s="14"/>
-      <c r="M513" s="14"/>
-      <c r="N513" s="14"/>
-      <c r="O513" s="14"/>
-      <c r="P513" s="14"/>
-      <c r="Q513" s="14"/>
-      <c r="R513" s="14"/>
-      <c r="S513" s="14"/>
       <c r="T513" s="5"/>
     </row>
     <row r="514" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A514" s="4"/>
-      <c r="B514" s="14"/>
-      <c r="C514" s="14"/>
-      <c r="D514" s="14"/>
-      <c r="E514" s="14"/>
-      <c r="F514" s="14"/>
-      <c r="G514" s="14"/>
-      <c r="H514" s="14"/>
-      <c r="I514" s="14"/>
-      <c r="J514" s="14"/>
-      <c r="K514" s="14"/>
-      <c r="L514" s="14"/>
-      <c r="M514" s="14"/>
-      <c r="N514" s="14"/>
-      <c r="O514" s="14"/>
-      <c r="P514" s="14"/>
-      <c r="Q514" s="14"/>
-      <c r="R514" s="14"/>
-      <c r="S514" s="14"/>
       <c r="T514" s="5"/>
     </row>
     <row r="515" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A515" s="4"/>
-      <c r="B515" s="14"/>
-      <c r="C515" s="14"/>
-      <c r="D515" s="14"/>
-      <c r="E515" s="14"/>
-      <c r="F515" s="14"/>
-      <c r="G515" s="14"/>
-      <c r="H515" s="14"/>
-      <c r="I515" s="14"/>
-      <c r="J515" s="14"/>
-      <c r="K515" s="14"/>
-      <c r="L515" s="14"/>
-      <c r="M515" s="14"/>
-      <c r="N515" s="14"/>
-      <c r="O515" s="14"/>
-      <c r="P515" s="14"/>
-      <c r="Q515" s="14"/>
-      <c r="R515" s="14"/>
-      <c r="S515" s="14"/>
       <c r="T515" s="5"/>
     </row>
     <row r="516" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A516" s="4"/>
-      <c r="B516" s="14"/>
-      <c r="C516" s="14"/>
-      <c r="D516" s="14"/>
-      <c r="E516" s="14"/>
-      <c r="F516" s="14"/>
-      <c r="G516" s="14"/>
-      <c r="H516" s="14"/>
-      <c r="I516" s="14"/>
-      <c r="J516" s="14"/>
-      <c r="K516" s="14"/>
-      <c r="L516" s="14"/>
-      <c r="M516" s="14"/>
-      <c r="N516" s="14"/>
-      <c r="O516" s="14"/>
-      <c r="P516" s="14"/>
-      <c r="Q516" s="14"/>
-      <c r="R516" s="14"/>
-      <c r="S516" s="14"/>
       <c r="T516" s="5"/>
     </row>
     <row r="517" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A517" s="4"/>
-      <c r="B517" s="14"/>
-      <c r="C517" s="14"/>
-      <c r="D517" s="14"/>
-      <c r="E517" s="14"/>
-      <c r="F517" s="14"/>
-      <c r="G517" s="14"/>
-      <c r="H517" s="14"/>
-      <c r="I517" s="14"/>
-      <c r="J517" s="14"/>
-      <c r="K517" s="14"/>
-      <c r="L517" s="14"/>
-      <c r="M517" s="14"/>
-      <c r="N517" s="14"/>
-      <c r="O517" s="14"/>
-      <c r="P517" s="14"/>
-      <c r="Q517" s="14"/>
-      <c r="R517" s="14"/>
-      <c r="S517" s="14"/>
       <c r="T517" s="5"/>
     </row>
     <row r="518" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A518" s="4"/>
-      <c r="B518" s="14"/>
-      <c r="C518" s="14"/>
-      <c r="D518" s="14"/>
-      <c r="E518" s="14"/>
-      <c r="F518" s="14"/>
-      <c r="G518" s="14"/>
-      <c r="H518" s="14"/>
-      <c r="I518" s="14"/>
-      <c r="J518" s="14"/>
-      <c r="K518" s="14"/>
-      <c r="L518" s="14"/>
-      <c r="M518" s="14"/>
-      <c r="N518" s="14"/>
-      <c r="O518" s="14"/>
-      <c r="P518" s="14"/>
-      <c r="Q518" s="14"/>
-      <c r="R518" s="14"/>
-      <c r="S518" s="14"/>
       <c r="T518" s="5"/>
     </row>
     <row r="519" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A519" s="4"/>
-      <c r="B519" s="14"/>
-      <c r="C519" s="14"/>
-      <c r="D519" s="14"/>
-      <c r="E519" s="14"/>
-      <c r="F519" s="14"/>
-      <c r="G519" s="14"/>
-      <c r="H519" s="14"/>
-      <c r="I519" s="14"/>
-      <c r="J519" s="14"/>
-      <c r="K519" s="14"/>
-      <c r="L519" s="14"/>
-      <c r="M519" s="14"/>
-      <c r="N519" s="14"/>
-      <c r="O519" s="14"/>
-      <c r="P519" s="14"/>
-      <c r="Q519" s="14"/>
-      <c r="R519" s="14"/>
-      <c r="S519" s="14"/>
       <c r="T519" s="5"/>
     </row>
     <row r="520" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A520" s="4"/>
-      <c r="B520" s="14"/>
-      <c r="C520" s="14"/>
-      <c r="D520" s="14"/>
-      <c r="E520" s="14"/>
-      <c r="F520" s="14"/>
-      <c r="G520" s="14"/>
-      <c r="H520" s="14"/>
-      <c r="I520" s="14"/>
-      <c r="J520" s="14"/>
-      <c r="K520" s="14"/>
-      <c r="L520" s="14"/>
-      <c r="M520" s="14"/>
-      <c r="N520" s="14"/>
-      <c r="O520" s="14"/>
-      <c r="P520" s="14"/>
-      <c r="Q520" s="14"/>
-      <c r="R520" s="14"/>
-      <c r="S520" s="14"/>
       <c r="T520" s="5"/>
     </row>
     <row r="521" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A521" s="4"/>
-      <c r="B521" s="14"/>
-      <c r="C521" s="14"/>
-      <c r="D521" s="14"/>
-      <c r="E521" s="14"/>
-      <c r="F521" s="14"/>
-      <c r="G521" s="14"/>
-      <c r="H521" s="14"/>
-      <c r="I521" s="14"/>
-      <c r="J521" s="14"/>
-      <c r="K521" s="14"/>
-      <c r="L521" s="14"/>
-      <c r="M521" s="14"/>
-      <c r="N521" s="14"/>
-      <c r="O521" s="14"/>
-      <c r="P521" s="14"/>
-      <c r="Q521" s="14"/>
-      <c r="R521" s="14"/>
-      <c r="S521" s="14"/>
       <c r="T521" s="5"/>
     </row>
     <row r="522" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A522" s="4"/>
-      <c r="B522" s="14"/>
-      <c r="C522" s="14"/>
-      <c r="D522" s="14"/>
-      <c r="E522" s="14"/>
-      <c r="F522" s="14"/>
-      <c r="G522" s="14"/>
-      <c r="H522" s="14"/>
-      <c r="I522" s="14"/>
-      <c r="J522" s="14"/>
-      <c r="K522" s="14"/>
-      <c r="L522" s="14"/>
-      <c r="M522" s="14"/>
-      <c r="N522" s="14"/>
-      <c r="O522" s="14"/>
-      <c r="P522" s="14"/>
-      <c r="Q522" s="14"/>
-      <c r="R522" s="14"/>
-      <c r="S522" s="14"/>
       <c r="T522" s="5"/>
     </row>
     <row r="523" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A523" s="4"/>
-      <c r="B523" s="14"/>
-      <c r="C523" s="14"/>
-      <c r="D523" s="14"/>
-      <c r="E523" s="14"/>
-      <c r="F523" s="14"/>
-      <c r="G523" s="14"/>
-      <c r="H523" s="14"/>
-      <c r="I523" s="14"/>
-      <c r="J523" s="14"/>
-      <c r="K523" s="14"/>
-      <c r="L523" s="14"/>
-      <c r="M523" s="14"/>
-      <c r="N523" s="14"/>
-      <c r="O523" s="14"/>
-      <c r="P523" s="14"/>
-      <c r="Q523" s="14"/>
-      <c r="R523" s="14"/>
-      <c r="S523" s="14"/>
       <c r="T523" s="5"/>
     </row>
     <row r="524" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A524" s="4"/>
-      <c r="B524" s="14"/>
-      <c r="C524" s="14"/>
-      <c r="D524" s="14"/>
-      <c r="E524" s="14"/>
-      <c r="F524" s="14"/>
-      <c r="G524" s="14"/>
-      <c r="H524" s="14"/>
-      <c r="I524" s="14"/>
-      <c r="J524" s="14"/>
-      <c r="K524" s="14"/>
-      <c r="L524" s="14"/>
-      <c r="M524" s="14"/>
-      <c r="N524" s="14"/>
-      <c r="O524" s="14"/>
-      <c r="P524" s="14"/>
-      <c r="Q524" s="14"/>
-      <c r="R524" s="14"/>
-      <c r="S524" s="14"/>
       <c r="T524" s="5"/>
     </row>
     <row r="525" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A525" s="4"/>
-      <c r="B525" s="14"/>
-      <c r="C525" s="14"/>
-      <c r="D525" s="14"/>
-      <c r="E525" s="14"/>
-      <c r="F525" s="14"/>
-      <c r="G525" s="14"/>
-      <c r="H525" s="14"/>
-      <c r="I525" s="14"/>
-      <c r="J525" s="14"/>
-      <c r="K525" s="14"/>
-      <c r="L525" s="14"/>
-      <c r="M525" s="14"/>
-      <c r="N525" s="14"/>
-      <c r="O525" s="14"/>
-      <c r="P525" s="14"/>
-      <c r="Q525" s="14"/>
-      <c r="R525" s="14"/>
-      <c r="S525" s="14"/>
       <c r="T525" s="5"/>
     </row>
     <row r="526" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A526" s="4"/>
-      <c r="B526" s="14"/>
-      <c r="C526" s="14"/>
-      <c r="D526" s="14"/>
-      <c r="E526" s="14"/>
-      <c r="F526" s="14"/>
-      <c r="G526" s="14"/>
-      <c r="H526" s="14"/>
-      <c r="I526" s="14"/>
-      <c r="J526" s="14"/>
-      <c r="K526" s="14"/>
-      <c r="L526" s="14"/>
-      <c r="M526" s="14"/>
-      <c r="N526" s="14"/>
-      <c r="O526" s="14"/>
-      <c r="P526" s="14"/>
-      <c r="Q526" s="14"/>
-      <c r="R526" s="14"/>
-      <c r="S526" s="14"/>
       <c r="T526" s="5"/>
     </row>
     <row r="527" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A527" s="4"/>
-      <c r="B527" s="14"/>
-      <c r="C527" s="14"/>
-      <c r="D527" s="14"/>
-      <c r="E527" s="14"/>
-      <c r="F527" s="14"/>
-      <c r="G527" s="14"/>
-      <c r="H527" s="14"/>
-      <c r="I527" s="14"/>
-      <c r="J527" s="14"/>
-      <c r="K527" s="14"/>
-      <c r="L527" s="14"/>
-      <c r="M527" s="14"/>
-      <c r="N527" s="14"/>
-      <c r="O527" s="14"/>
-      <c r="P527" s="14"/>
-      <c r="Q527" s="14"/>
-      <c r="R527" s="14"/>
-      <c r="S527" s="14"/>
       <c r="T527" s="5"/>
     </row>
     <row r="528" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A528" s="4"/>
-      <c r="B528" s="14"/>
-      <c r="C528" s="14"/>
-      <c r="D528" s="14"/>
-      <c r="E528" s="14"/>
-      <c r="F528" s="14"/>
-      <c r="G528" s="14"/>
-      <c r="H528" s="14"/>
-      <c r="I528" s="14"/>
-      <c r="J528" s="14"/>
-      <c r="K528" s="14"/>
-      <c r="L528" s="14"/>
-      <c r="M528" s="14"/>
-      <c r="N528" s="14"/>
-      <c r="O528" s="14"/>
-      <c r="P528" s="14"/>
-      <c r="Q528" s="14"/>
-      <c r="R528" s="14"/>
-      <c r="S528" s="14"/>
       <c r="T528" s="5"/>
     </row>
     <row r="529" spans="1:20" x14ac:dyDescent="0.25">
@@ -7962,4 +6775,4284 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AADE0EE-22B9-48B5-BC7F-48AE253EB686}">
+  <dimension ref="A2:N328"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A374" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B396" sqref="B396"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="15"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="15"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="15"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="15"/>
+      <c r="B8" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="17"/>
+      <c r="L8" s="18"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="15"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="15"/>
+      <c r="L9" s="20"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="15"/>
+      <c r="B10" s="19"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="15"/>
+      <c r="K10" s="15"/>
+      <c r="L10" s="20"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="15"/>
+      <c r="B11" s="19"/>
+      <c r="C11" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="15"/>
+      <c r="K11" s="15"/>
+      <c r="L11" s="20"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="15"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="15"/>
+      <c r="K12" s="15"/>
+      <c r="L12" s="20"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="15"/>
+      <c r="B13" s="19"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="15"/>
+      <c r="K13" s="15"/>
+      <c r="L13" s="20"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="15"/>
+      <c r="B14" s="19"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="15"/>
+      <c r="K14" s="15"/>
+      <c r="L14" s="20"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="15"/>
+      <c r="B15" s="19"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="H15" s="15"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="15"/>
+      <c r="K15" s="15"/>
+      <c r="L15" s="20"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="15"/>
+      <c r="B16" s="19"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="H16" s="15"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="15"/>
+      <c r="K16" s="15"/>
+      <c r="L16" s="20"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" s="15"/>
+      <c r="B17" s="19"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="15"/>
+      <c r="K17" s="15"/>
+      <c r="L17" s="20"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="15"/>
+      <c r="B18" s="19"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="H18" s="15"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="15"/>
+      <c r="K18" s="15"/>
+      <c r="L18" s="20"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" s="15"/>
+      <c r="B19" s="19"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="H19" s="15"/>
+      <c r="I19" s="15"/>
+      <c r="J19" s="15"/>
+      <c r="K19" s="15"/>
+      <c r="L19" s="20"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" s="15"/>
+      <c r="B20" s="19"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="H20" s="15"/>
+      <c r="I20" s="15"/>
+      <c r="J20" s="15"/>
+      <c r="K20" s="15"/>
+      <c r="L20" s="20"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" s="15"/>
+      <c r="B21" s="19"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="H21" s="15"/>
+      <c r="I21" s="15"/>
+      <c r="J21" s="15"/>
+      <c r="K21" s="15"/>
+      <c r="L21" s="20"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" s="15"/>
+      <c r="B22" s="19"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="H22" s="15"/>
+      <c r="I22" s="15"/>
+      <c r="J22" s="15"/>
+      <c r="K22" s="15"/>
+      <c r="L22" s="20"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" s="15"/>
+      <c r="B23" s="19"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="H23" s="15"/>
+      <c r="I23" s="15"/>
+      <c r="J23" s="15"/>
+      <c r="K23" s="15"/>
+      <c r="L23" s="20"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" s="15"/>
+      <c r="B24" s="19"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="H24" s="15"/>
+      <c r="I24" s="15"/>
+      <c r="J24" s="15"/>
+      <c r="K24" s="15"/>
+      <c r="L24" s="20"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" s="15"/>
+      <c r="B25" s="19"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="G25" s="15"/>
+      <c r="H25" s="15"/>
+      <c r="I25" s="15"/>
+      <c r="J25" s="15"/>
+      <c r="K25" s="15"/>
+      <c r="L25" s="20"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" s="15"/>
+      <c r="B26" s="19"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="H26" s="15"/>
+      <c r="I26" s="15"/>
+      <c r="J26" s="15"/>
+      <c r="K26" s="15"/>
+      <c r="L26" s="20"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" s="15"/>
+      <c r="B27" s="19"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="15"/>
+      <c r="G27" s="15"/>
+      <c r="H27" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="I27" s="15"/>
+      <c r="J27" s="15"/>
+      <c r="K27" s="15"/>
+      <c r="L27" s="20"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" s="15"/>
+      <c r="B28" s="19"/>
+      <c r="C28" s="15"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="15"/>
+      <c r="G28" s="15"/>
+      <c r="H28" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="I28" s="15"/>
+      <c r="J28" s="15"/>
+      <c r="K28" s="15"/>
+      <c r="L28" s="20"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" s="15"/>
+      <c r="B29" s="19"/>
+      <c r="C29" s="15"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="15"/>
+      <c r="F29" s="15"/>
+      <c r="G29" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="H29" s="15"/>
+      <c r="I29" s="15"/>
+      <c r="J29" s="15"/>
+      <c r="K29" s="15"/>
+      <c r="L29" s="20"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" s="15"/>
+      <c r="B30" s="19"/>
+      <c r="C30" s="15"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="15"/>
+      <c r="F30" s="15"/>
+      <c r="G30" s="15"/>
+      <c r="H30" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="I30" s="15"/>
+      <c r="J30" s="15"/>
+      <c r="K30" s="15"/>
+      <c r="L30" s="20"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" s="15"/>
+      <c r="B31" s="19"/>
+      <c r="C31" s="15"/>
+      <c r="D31" s="15"/>
+      <c r="E31" s="15"/>
+      <c r="F31" s="15"/>
+      <c r="G31" s="15"/>
+      <c r="H31" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="I31" s="15"/>
+      <c r="J31" s="15"/>
+      <c r="K31" s="15"/>
+      <c r="L31" s="20"/>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32" s="15"/>
+      <c r="B32" s="19"/>
+      <c r="C32" s="15"/>
+      <c r="D32" s="15"/>
+      <c r="E32" s="15"/>
+      <c r="F32" s="15"/>
+      <c r="G32" s="15" t="s">
+        <v>165</v>
+      </c>
+      <c r="H32" s="15"/>
+      <c r="I32" s="15"/>
+      <c r="J32" s="15"/>
+      <c r="K32" s="15"/>
+      <c r="L32" s="20"/>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A33" s="15"/>
+      <c r="B33" s="19"/>
+      <c r="C33" s="15"/>
+      <c r="D33" s="15"/>
+      <c r="E33" s="15"/>
+      <c r="F33" s="15"/>
+      <c r="G33" s="15"/>
+      <c r="H33" s="15" t="s">
+        <v>166</v>
+      </c>
+      <c r="I33" s="15"/>
+      <c r="J33" s="15"/>
+      <c r="K33" s="15"/>
+      <c r="L33" s="20"/>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A34" s="15"/>
+      <c r="B34" s="19"/>
+      <c r="C34" s="15"/>
+      <c r="D34" s="15"/>
+      <c r="E34" s="15"/>
+      <c r="F34" s="15"/>
+      <c r="G34" s="15"/>
+      <c r="H34" s="15" t="s">
+        <v>167</v>
+      </c>
+      <c r="I34" s="15"/>
+      <c r="J34" s="15"/>
+      <c r="K34" s="15"/>
+      <c r="L34" s="20"/>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A35" s="15"/>
+      <c r="B35" s="19"/>
+      <c r="C35" s="15"/>
+      <c r="D35" s="15"/>
+      <c r="E35" s="15"/>
+      <c r="F35" s="15"/>
+      <c r="G35" s="15"/>
+      <c r="H35" s="15" t="s">
+        <v>168</v>
+      </c>
+      <c r="I35" s="15"/>
+      <c r="J35" s="15"/>
+      <c r="K35" s="15"/>
+      <c r="L35" s="20"/>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A36" s="15"/>
+      <c r="B36" s="19"/>
+      <c r="C36" s="15"/>
+      <c r="D36" s="15"/>
+      <c r="E36" s="15"/>
+      <c r="F36" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="G36" s="15"/>
+      <c r="H36" s="15"/>
+      <c r="I36" s="15"/>
+      <c r="J36" s="15"/>
+      <c r="K36" s="15"/>
+      <c r="L36" s="20"/>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A37" s="15"/>
+      <c r="B37" s="19"/>
+      <c r="C37" s="15"/>
+      <c r="D37" s="15"/>
+      <c r="E37" s="15"/>
+      <c r="F37" s="15"/>
+      <c r="G37" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="H37" s="15"/>
+      <c r="I37" s="15"/>
+      <c r="J37" s="15"/>
+      <c r="K37" s="15"/>
+      <c r="L37" s="20"/>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A38" s="15"/>
+      <c r="B38" s="19"/>
+      <c r="C38" s="15"/>
+      <c r="D38" s="15"/>
+      <c r="E38" s="15"/>
+      <c r="F38" s="15"/>
+      <c r="G38" s="15"/>
+      <c r="H38" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="I38" s="15"/>
+      <c r="J38" s="15"/>
+      <c r="K38" s="15"/>
+      <c r="L38" s="20"/>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A39" s="15"/>
+      <c r="B39" s="19"/>
+      <c r="C39" s="15"/>
+      <c r="D39" s="15"/>
+      <c r="E39" s="15"/>
+      <c r="F39" s="15"/>
+      <c r="G39" s="15"/>
+      <c r="H39" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="I39" s="15"/>
+      <c r="J39" s="15"/>
+      <c r="K39" s="15"/>
+      <c r="L39" s="20"/>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A40" s="15"/>
+      <c r="B40" s="19"/>
+      <c r="C40" s="15"/>
+      <c r="D40" s="15"/>
+      <c r="E40" s="15"/>
+      <c r="F40" s="15"/>
+      <c r="G40" s="15"/>
+      <c r="H40" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="I40" s="15"/>
+      <c r="J40" s="15"/>
+      <c r="K40" s="15"/>
+      <c r="L40" s="20"/>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A41" s="15"/>
+      <c r="B41" s="19"/>
+      <c r="C41" s="15"/>
+      <c r="D41" s="15"/>
+      <c r="E41" s="15"/>
+      <c r="F41" s="15"/>
+      <c r="G41" s="15"/>
+      <c r="H41" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="I41" s="15"/>
+      <c r="J41" s="15"/>
+      <c r="K41" s="15"/>
+      <c r="L41" s="20"/>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A42" s="15"/>
+      <c r="B42" s="19"/>
+      <c r="C42" s="15"/>
+      <c r="D42" s="15"/>
+      <c r="E42" s="15"/>
+      <c r="F42" s="15"/>
+      <c r="G42" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="H42" s="15"/>
+      <c r="I42" s="15"/>
+      <c r="J42" s="15"/>
+      <c r="K42" s="15"/>
+      <c r="L42" s="20"/>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A43" s="15"/>
+      <c r="B43" s="19"/>
+      <c r="C43" s="15"/>
+      <c r="D43" s="15"/>
+      <c r="E43" s="15"/>
+      <c r="F43" s="15"/>
+      <c r="G43" s="15"/>
+      <c r="H43" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="I43" s="15"/>
+      <c r="J43" s="15"/>
+      <c r="K43" s="15"/>
+      <c r="L43" s="20"/>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A44" s="15"/>
+      <c r="B44" s="19"/>
+      <c r="C44" s="15"/>
+      <c r="D44" s="15"/>
+      <c r="E44" s="15"/>
+      <c r="F44" s="15"/>
+      <c r="G44" s="15"/>
+      <c r="H44" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="I44" s="15"/>
+      <c r="J44" s="15"/>
+      <c r="K44" s="15"/>
+      <c r="L44" s="20"/>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A45" s="15"/>
+      <c r="B45" s="19"/>
+      <c r="C45" s="15"/>
+      <c r="D45" s="15"/>
+      <c r="E45" s="15"/>
+      <c r="F45" s="15"/>
+      <c r="G45" s="15"/>
+      <c r="H45" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="I45" s="15"/>
+      <c r="J45" s="15"/>
+      <c r="K45" s="15"/>
+      <c r="L45" s="20"/>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A46" s="15"/>
+      <c r="B46" s="19"/>
+      <c r="C46" s="15"/>
+      <c r="D46" s="15"/>
+      <c r="E46" s="15"/>
+      <c r="F46" s="15"/>
+      <c r="G46" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="H46" s="15"/>
+      <c r="I46" s="15"/>
+      <c r="J46" s="15"/>
+      <c r="K46" s="15"/>
+      <c r="L46" s="20"/>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A47" s="15"/>
+      <c r="B47" s="19"/>
+      <c r="C47" s="15"/>
+      <c r="D47" s="15"/>
+      <c r="E47" s="15"/>
+      <c r="F47" s="15"/>
+      <c r="G47" s="15"/>
+      <c r="H47" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="I47" s="15"/>
+      <c r="J47" s="15"/>
+      <c r="K47" s="15"/>
+      <c r="L47" s="20"/>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A48" s="15"/>
+      <c r="B48" s="19"/>
+      <c r="C48" s="15"/>
+      <c r="D48" s="15"/>
+      <c r="E48" s="15"/>
+      <c r="F48" s="15"/>
+      <c r="G48" s="15"/>
+      <c r="H48" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="I48" s="15"/>
+      <c r="J48" s="15"/>
+      <c r="K48" s="15"/>
+      <c r="L48" s="20"/>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A49" s="15"/>
+      <c r="B49" s="19"/>
+      <c r="C49" s="15"/>
+      <c r="D49" s="15"/>
+      <c r="E49" s="15"/>
+      <c r="F49" s="15"/>
+      <c r="G49" s="15"/>
+      <c r="H49" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="I49" s="15"/>
+      <c r="J49" s="15"/>
+      <c r="K49" s="15"/>
+      <c r="L49" s="20"/>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A50" s="15"/>
+      <c r="B50" s="19"/>
+      <c r="C50" s="15"/>
+      <c r="D50" s="15"/>
+      <c r="E50" s="15"/>
+      <c r="F50" s="15"/>
+      <c r="G50" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="H50" s="15"/>
+      <c r="I50" s="15"/>
+      <c r="J50" s="15"/>
+      <c r="K50" s="15"/>
+      <c r="L50" s="20"/>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A51" s="15"/>
+      <c r="B51" s="19"/>
+      <c r="C51" s="15"/>
+      <c r="D51" s="15"/>
+      <c r="E51" s="15"/>
+      <c r="F51" s="15"/>
+      <c r="G51" s="15"/>
+      <c r="H51" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="I51" s="15"/>
+      <c r="J51" s="15"/>
+      <c r="K51" s="15"/>
+      <c r="L51" s="20"/>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A52" s="15"/>
+      <c r="B52" s="19"/>
+      <c r="C52" s="15"/>
+      <c r="D52" s="15"/>
+      <c r="E52" s="15"/>
+      <c r="F52" s="15"/>
+      <c r="G52" s="15"/>
+      <c r="H52" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="I52" s="15"/>
+      <c r="J52" s="15"/>
+      <c r="K52" s="15"/>
+      <c r="L52" s="20"/>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A53" s="15"/>
+      <c r="B53" s="19"/>
+      <c r="C53" s="15"/>
+      <c r="D53" s="15"/>
+      <c r="E53" s="15"/>
+      <c r="F53" s="15"/>
+      <c r="G53" s="15"/>
+      <c r="H53" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="I53" s="15"/>
+      <c r="J53" s="15"/>
+      <c r="K53" s="15"/>
+      <c r="L53" s="20"/>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A54" s="15"/>
+      <c r="B54" s="19"/>
+      <c r="C54" s="15"/>
+      <c r="D54" s="15"/>
+      <c r="E54" s="15"/>
+      <c r="F54" s="15"/>
+      <c r="G54" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="H54" s="15"/>
+      <c r="I54" s="15"/>
+      <c r="J54" s="15"/>
+      <c r="K54" s="15"/>
+      <c r="L54" s="20"/>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A55" s="15"/>
+      <c r="B55" s="19"/>
+      <c r="C55" s="15"/>
+      <c r="D55" s="15"/>
+      <c r="E55" s="15"/>
+      <c r="F55" s="15"/>
+      <c r="G55" s="15"/>
+      <c r="H55" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="I55" s="15"/>
+      <c r="J55" s="15"/>
+      <c r="K55" s="15"/>
+      <c r="L55" s="20"/>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A56" s="15"/>
+      <c r="B56" s="19"/>
+      <c r="C56" s="15"/>
+      <c r="D56" s="15"/>
+      <c r="E56" s="15"/>
+      <c r="F56" s="15"/>
+      <c r="G56" s="15"/>
+      <c r="H56" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="I56" s="15"/>
+      <c r="J56" s="15"/>
+      <c r="K56" s="15"/>
+      <c r="L56" s="20"/>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A57" s="15"/>
+      <c r="B57" s="19"/>
+      <c r="C57" s="15"/>
+      <c r="D57" s="15"/>
+      <c r="E57" s="15"/>
+      <c r="F57" s="15"/>
+      <c r="G57" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" s="15"/>
+      <c r="I57" s="15"/>
+      <c r="J57" s="15"/>
+      <c r="K57" s="15"/>
+      <c r="L57" s="20"/>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A58" s="15"/>
+      <c r="B58" s="19"/>
+      <c r="C58" s="15"/>
+      <c r="D58" s="15"/>
+      <c r="E58" s="15"/>
+      <c r="F58" s="15"/>
+      <c r="G58" s="15"/>
+      <c r="H58" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" s="15"/>
+      <c r="J58" s="15"/>
+      <c r="K58" s="15"/>
+      <c r="L58" s="20"/>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A59" s="15"/>
+      <c r="B59" s="19"/>
+      <c r="C59" s="15"/>
+      <c r="D59" s="15"/>
+      <c r="E59" s="15"/>
+      <c r="F59" s="15"/>
+      <c r="G59" s="15"/>
+      <c r="H59" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="I59" s="15"/>
+      <c r="J59" s="15"/>
+      <c r="K59" s="15"/>
+      <c r="L59" s="20"/>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A60" s="15"/>
+      <c r="B60" s="19"/>
+      <c r="C60" s="15"/>
+      <c r="D60" s="15"/>
+      <c r="E60" s="15"/>
+      <c r="F60" s="15"/>
+      <c r="G60" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="H60" s="15"/>
+      <c r="I60" s="15"/>
+      <c r="J60" s="15"/>
+      <c r="K60" s="15"/>
+      <c r="L60" s="20"/>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A61" s="15"/>
+      <c r="B61" s="19"/>
+      <c r="C61" s="15"/>
+      <c r="D61" s="15"/>
+      <c r="E61" s="15"/>
+      <c r="F61" s="15"/>
+      <c r="G61" s="15"/>
+      <c r="H61" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="I61" s="15"/>
+      <c r="J61" s="15"/>
+      <c r="K61" s="15"/>
+      <c r="L61" s="20"/>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A62" s="15"/>
+      <c r="B62" s="19"/>
+      <c r="C62" s="15"/>
+      <c r="D62" s="15"/>
+      <c r="E62" s="15"/>
+      <c r="F62" s="15"/>
+      <c r="G62" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="H62" s="15"/>
+      <c r="I62" s="15"/>
+      <c r="J62" s="15"/>
+      <c r="K62" s="15"/>
+      <c r="L62" s="20"/>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A63" s="15"/>
+      <c r="B63" s="19"/>
+      <c r="C63" s="15"/>
+      <c r="D63" s="15"/>
+      <c r="E63" s="15"/>
+      <c r="F63" s="15"/>
+      <c r="G63" s="15"/>
+      <c r="H63" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="I63" s="15"/>
+      <c r="J63" s="15"/>
+      <c r="K63" s="15"/>
+      <c r="L63" s="20"/>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A64" s="15"/>
+      <c r="B64" s="19"/>
+      <c r="C64" s="15"/>
+      <c r="D64" s="15"/>
+      <c r="E64" s="15"/>
+      <c r="F64" s="15"/>
+      <c r="G64" s="15"/>
+      <c r="H64" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="I64" s="15"/>
+      <c r="J64" s="15"/>
+      <c r="K64" s="15"/>
+      <c r="L64" s="20"/>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A65" s="15"/>
+      <c r="B65" s="19"/>
+      <c r="C65" s="15"/>
+      <c r="D65" s="15"/>
+      <c r="E65" s="15"/>
+      <c r="F65" s="15"/>
+      <c r="G65" s="15"/>
+      <c r="H65" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="I65" s="15"/>
+      <c r="J65" s="15"/>
+      <c r="K65" s="15"/>
+      <c r="L65" s="20"/>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A66" s="15"/>
+      <c r="B66" s="19"/>
+      <c r="C66" s="15"/>
+      <c r="D66" s="15"/>
+      <c r="E66" s="15"/>
+      <c r="F66" s="15"/>
+      <c r="G66" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="H66" s="15"/>
+      <c r="I66" s="15"/>
+      <c r="J66" s="15"/>
+      <c r="K66" s="15"/>
+      <c r="L66" s="20"/>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A67" s="15"/>
+      <c r="B67" s="19"/>
+      <c r="C67" s="15"/>
+      <c r="D67" s="15"/>
+      <c r="E67" s="15"/>
+      <c r="F67" s="15"/>
+      <c r="G67" s="15"/>
+      <c r="H67" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="I67" s="15"/>
+      <c r="J67" s="15"/>
+      <c r="K67" s="15"/>
+      <c r="L67" s="20"/>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A68" s="15"/>
+      <c r="B68" s="19"/>
+      <c r="C68" s="15"/>
+      <c r="D68" s="15"/>
+      <c r="E68" s="15"/>
+      <c r="F68" s="15"/>
+      <c r="G68" s="15"/>
+      <c r="H68" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="I68" s="15"/>
+      <c r="J68" s="15"/>
+      <c r="K68" s="15"/>
+      <c r="L68" s="20"/>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A69" s="15"/>
+      <c r="B69" s="19"/>
+      <c r="C69" s="15"/>
+      <c r="D69" s="15"/>
+      <c r="E69" s="15"/>
+      <c r="F69" s="15"/>
+      <c r="G69" s="15"/>
+      <c r="H69" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="I69" s="15"/>
+      <c r="J69" s="15"/>
+      <c r="K69" s="15"/>
+      <c r="L69" s="20"/>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A70" s="15"/>
+      <c r="B70" s="19"/>
+      <c r="C70" s="15"/>
+      <c r="D70" s="15"/>
+      <c r="E70" s="15"/>
+      <c r="F70" s="15"/>
+      <c r="G70" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="H70" s="15"/>
+      <c r="I70" s="15"/>
+      <c r="J70" s="15"/>
+      <c r="K70" s="15"/>
+      <c r="L70" s="20"/>
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A71" s="15"/>
+      <c r="B71" s="19"/>
+      <c r="C71" s="15"/>
+      <c r="D71" s="15"/>
+      <c r="E71" s="15"/>
+      <c r="F71" s="15"/>
+      <c r="G71" s="15"/>
+      <c r="H71" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="I71" s="15"/>
+      <c r="J71" s="15"/>
+      <c r="K71" s="15"/>
+      <c r="L71" s="20"/>
+    </row>
+    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A72" s="15"/>
+      <c r="B72" s="19"/>
+      <c r="C72" s="15"/>
+      <c r="D72" s="15"/>
+      <c r="E72" s="15"/>
+      <c r="F72" s="15"/>
+      <c r="G72" s="15"/>
+      <c r="H72" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="I72" s="15"/>
+      <c r="J72" s="15"/>
+      <c r="K72" s="15"/>
+      <c r="L72" s="20"/>
+    </row>
+    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A73" s="15"/>
+      <c r="B73" s="19"/>
+      <c r="C73" s="15"/>
+      <c r="D73" s="15"/>
+      <c r="E73" s="15"/>
+      <c r="F73" s="15"/>
+      <c r="G73" s="15"/>
+      <c r="H73" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="I73" s="15"/>
+      <c r="J73" s="15"/>
+      <c r="K73" s="15"/>
+      <c r="L73" s="20"/>
+    </row>
+    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A74" s="15"/>
+      <c r="B74" s="19"/>
+      <c r="C74" s="15"/>
+      <c r="D74" s="15"/>
+      <c r="E74" s="15"/>
+      <c r="F74" s="15"/>
+      <c r="G74" s="6" t="s">
+        <v>372</v>
+      </c>
+      <c r="H74" s="15"/>
+      <c r="I74" s="15"/>
+      <c r="J74" s="15"/>
+      <c r="K74" s="15"/>
+      <c r="L74" s="20"/>
+      <c r="M74" t="s">
+        <v>164</v>
+      </c>
+      <c r="N74" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A75" s="15"/>
+      <c r="B75" s="19"/>
+      <c r="C75" s="15"/>
+      <c r="D75" s="15"/>
+      <c r="E75" s="15"/>
+      <c r="F75" s="15"/>
+      <c r="G75" s="15"/>
+      <c r="H75" s="6" t="s">
+        <v>373</v>
+      </c>
+      <c r="I75" s="15"/>
+      <c r="J75" s="15"/>
+      <c r="K75" s="15"/>
+      <c r="L75" s="20"/>
+    </row>
+    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A76" s="15"/>
+      <c r="B76" s="19"/>
+      <c r="C76" s="15"/>
+      <c r="D76" s="15"/>
+      <c r="E76" s="15"/>
+      <c r="F76" s="15"/>
+      <c r="G76" s="15"/>
+      <c r="H76" s="6" t="s">
+        <v>374</v>
+      </c>
+      <c r="I76" s="15"/>
+      <c r="J76" s="15"/>
+      <c r="K76" s="15"/>
+      <c r="L76" s="20"/>
+    </row>
+    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A77" s="15"/>
+      <c r="B77" s="19"/>
+      <c r="C77" s="15"/>
+      <c r="D77" s="15"/>
+      <c r="E77" s="15"/>
+      <c r="F77" s="15"/>
+      <c r="G77" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="H77" s="15"/>
+      <c r="I77" s="15"/>
+      <c r="J77" s="15"/>
+      <c r="K77" s="15"/>
+      <c r="L77" s="20"/>
+    </row>
+    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A78" s="15"/>
+      <c r="B78" s="19"/>
+      <c r="C78" s="15"/>
+      <c r="D78" s="15"/>
+      <c r="E78" s="15"/>
+      <c r="F78" s="15"/>
+      <c r="G78" s="15"/>
+      <c r="H78" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="I78" s="15"/>
+      <c r="J78" s="15"/>
+      <c r="K78" s="15"/>
+      <c r="L78" s="20"/>
+    </row>
+    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A79" s="15"/>
+      <c r="B79" s="19"/>
+      <c r="C79" s="15"/>
+      <c r="D79" s="15"/>
+      <c r="E79" s="15"/>
+      <c r="F79" s="15"/>
+      <c r="G79" s="15"/>
+      <c r="H79" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="I79" s="15"/>
+      <c r="J79" s="15"/>
+      <c r="K79" s="15"/>
+      <c r="L79" s="20"/>
+    </row>
+    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A80" s="15"/>
+      <c r="B80" s="19"/>
+      <c r="C80" s="15"/>
+      <c r="D80" s="15"/>
+      <c r="E80" s="15"/>
+      <c r="F80" s="15"/>
+      <c r="G80" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="H80" s="15"/>
+      <c r="I80" s="15"/>
+      <c r="J80" s="15"/>
+      <c r="K80" s="15"/>
+      <c r="L80" s="20"/>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A81" s="15"/>
+      <c r="B81" s="19"/>
+      <c r="C81" s="15"/>
+      <c r="D81" s="15"/>
+      <c r="E81" s="15"/>
+      <c r="F81" s="15"/>
+      <c r="G81" s="15"/>
+      <c r="H81" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="I81" s="15"/>
+      <c r="J81" s="15"/>
+      <c r="K81" s="15"/>
+      <c r="L81" s="20"/>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A82" s="15"/>
+      <c r="B82" s="19"/>
+      <c r="C82" s="15"/>
+      <c r="D82" s="15"/>
+      <c r="E82" s="15"/>
+      <c r="F82" s="15"/>
+      <c r="G82" s="15"/>
+      <c r="H82" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="I82" s="15"/>
+      <c r="J82" s="15"/>
+      <c r="K82" s="15"/>
+      <c r="L82" s="20"/>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A83" s="15"/>
+      <c r="B83" s="19"/>
+      <c r="C83" s="15"/>
+      <c r="D83" s="15"/>
+      <c r="E83" s="15"/>
+      <c r="F83" s="15"/>
+      <c r="G83" s="15"/>
+      <c r="H83" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="I83" s="15"/>
+      <c r="J83" s="15"/>
+      <c r="K83" s="15"/>
+      <c r="L83" s="20"/>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A84" s="15"/>
+      <c r="B84" s="19"/>
+      <c r="C84" s="15"/>
+      <c r="D84" s="15"/>
+      <c r="E84" s="15"/>
+      <c r="F84" s="15"/>
+      <c r="G84" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="H84" s="15"/>
+      <c r="I84" s="15"/>
+      <c r="J84" s="15"/>
+      <c r="K84" s="15"/>
+      <c r="L84" s="20"/>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A85" s="15"/>
+      <c r="B85" s="19"/>
+      <c r="C85" s="15"/>
+      <c r="D85" s="15"/>
+      <c r="E85" s="15"/>
+      <c r="F85" s="15"/>
+      <c r="G85" s="15"/>
+      <c r="H85" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="I85" s="15"/>
+      <c r="J85" s="15"/>
+      <c r="K85" s="15"/>
+      <c r="L85" s="20"/>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A86" s="15"/>
+      <c r="B86" s="19"/>
+      <c r="C86" s="15"/>
+      <c r="D86" s="15"/>
+      <c r="E86" s="15"/>
+      <c r="F86" s="15"/>
+      <c r="G86" s="15"/>
+      <c r="H86" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="I86" s="15"/>
+      <c r="J86" s="15"/>
+      <c r="K86" s="15"/>
+      <c r="L86" s="20"/>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A87" s="15"/>
+      <c r="B87" s="19"/>
+      <c r="C87" s="15"/>
+      <c r="D87" s="15"/>
+      <c r="E87" s="15"/>
+      <c r="F87" s="15"/>
+      <c r="G87" s="15"/>
+      <c r="H87" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="I87" s="15"/>
+      <c r="J87" s="15"/>
+      <c r="K87" s="15"/>
+      <c r="L87" s="20"/>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A88" s="15"/>
+      <c r="B88" s="19"/>
+      <c r="C88" s="15"/>
+      <c r="D88" s="15"/>
+      <c r="E88" s="15"/>
+      <c r="F88" s="15"/>
+      <c r="G88" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="H88" s="15"/>
+      <c r="I88" s="15"/>
+      <c r="J88" s="15"/>
+      <c r="K88" s="15"/>
+      <c r="L88" s="20"/>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A89" s="15"/>
+      <c r="B89" s="19"/>
+      <c r="C89" s="15"/>
+      <c r="D89" s="15"/>
+      <c r="E89" s="15"/>
+      <c r="F89" s="15"/>
+      <c r="G89" s="15"/>
+      <c r="H89" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="I89" s="15"/>
+      <c r="J89" s="15"/>
+      <c r="K89" s="15"/>
+      <c r="L89" s="20"/>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A90" s="15"/>
+      <c r="B90" s="19"/>
+      <c r="C90" s="15"/>
+      <c r="D90" s="15"/>
+      <c r="E90" s="15"/>
+      <c r="F90" s="15"/>
+      <c r="G90" s="15"/>
+      <c r="H90" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="I90" s="15"/>
+      <c r="J90" s="15"/>
+      <c r="K90" s="15"/>
+      <c r="L90" s="20"/>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A91" s="15"/>
+      <c r="B91" s="19"/>
+      <c r="C91" s="15"/>
+      <c r="D91" s="15"/>
+      <c r="E91" s="15"/>
+      <c r="F91" s="15"/>
+      <c r="G91" s="15"/>
+      <c r="H91" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="I91" s="15"/>
+      <c r="J91" s="15"/>
+      <c r="K91" s="15"/>
+      <c r="L91" s="20"/>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A92" s="15"/>
+      <c r="B92" s="19"/>
+      <c r="C92" s="15"/>
+      <c r="D92" s="15"/>
+      <c r="E92" s="15"/>
+      <c r="F92" s="15"/>
+      <c r="G92" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="H92" s="15"/>
+      <c r="I92" s="15"/>
+      <c r="J92" s="15"/>
+      <c r="K92" s="15"/>
+      <c r="L92" s="20"/>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A93" s="15"/>
+      <c r="B93" s="19"/>
+      <c r="C93" s="15"/>
+      <c r="D93" s="15"/>
+      <c r="E93" s="15"/>
+      <c r="F93" s="15"/>
+      <c r="G93" s="15"/>
+      <c r="H93" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="I93" s="15"/>
+      <c r="J93" s="15"/>
+      <c r="K93" s="15"/>
+      <c r="L93" s="20"/>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A94" s="15"/>
+      <c r="B94" s="19"/>
+      <c r="C94" s="15"/>
+      <c r="D94" s="15"/>
+      <c r="E94" s="15"/>
+      <c r="F94" s="15"/>
+      <c r="G94" s="15"/>
+      <c r="H94" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="I94" s="15"/>
+      <c r="J94" s="15"/>
+      <c r="K94" s="15"/>
+      <c r="L94" s="20"/>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A95" s="15"/>
+      <c r="B95" s="19"/>
+      <c r="C95" s="15"/>
+      <c r="D95" s="15"/>
+      <c r="E95" s="15"/>
+      <c r="F95" s="15"/>
+      <c r="G95" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="H95" s="15"/>
+      <c r="I95" s="15"/>
+      <c r="J95" s="15"/>
+      <c r="K95" s="15"/>
+      <c r="L95" s="20"/>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A96" s="15"/>
+      <c r="B96" s="19"/>
+      <c r="C96" s="15"/>
+      <c r="D96" s="15"/>
+      <c r="E96" s="15"/>
+      <c r="F96" s="15"/>
+      <c r="G96" s="15"/>
+      <c r="H96" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="I96" s="15"/>
+      <c r="J96" s="15"/>
+      <c r="K96" s="15"/>
+      <c r="L96" s="20"/>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A97" s="15"/>
+      <c r="B97" s="19"/>
+      <c r="C97" s="15"/>
+      <c r="D97" s="15"/>
+      <c r="E97" s="15"/>
+      <c r="F97" s="15"/>
+      <c r="G97" s="15"/>
+      <c r="H97" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="I97" s="15"/>
+      <c r="J97" s="15"/>
+      <c r="K97" s="15"/>
+      <c r="L97" s="20"/>
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A98" s="15"/>
+      <c r="B98" s="19"/>
+      <c r="C98" s="15"/>
+      <c r="D98" s="15"/>
+      <c r="E98" s="15"/>
+      <c r="F98" s="15"/>
+      <c r="G98" s="15"/>
+      <c r="H98" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="I98" s="15"/>
+      <c r="J98" s="15"/>
+      <c r="K98" s="15"/>
+      <c r="L98" s="20"/>
+    </row>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A99" s="15"/>
+      <c r="B99" s="19"/>
+      <c r="C99" s="15"/>
+      <c r="D99" s="15"/>
+      <c r="E99" s="15"/>
+      <c r="F99" s="15"/>
+      <c r="G99" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="H99" s="15"/>
+      <c r="I99" s="15"/>
+      <c r="J99" s="15"/>
+      <c r="K99" s="15"/>
+      <c r="L99" s="20"/>
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A100" s="15"/>
+      <c r="B100" s="19"/>
+      <c r="C100" s="15"/>
+      <c r="D100" s="15"/>
+      <c r="E100" s="15"/>
+      <c r="F100" s="15"/>
+      <c r="G100" s="15"/>
+      <c r="H100" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="I100" s="15"/>
+      <c r="J100" s="15"/>
+      <c r="K100" s="15"/>
+      <c r="L100" s="20"/>
+    </row>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A101" s="15"/>
+      <c r="B101" s="19"/>
+      <c r="C101" s="15"/>
+      <c r="D101" s="15"/>
+      <c r="E101" s="15"/>
+      <c r="F101" s="15"/>
+      <c r="G101" s="15"/>
+      <c r="H101" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="I101" s="15"/>
+      <c r="J101" s="15"/>
+      <c r="K101" s="15"/>
+      <c r="L101" s="20"/>
+    </row>
+    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A102" s="15"/>
+      <c r="B102" s="19"/>
+      <c r="C102" s="15"/>
+      <c r="D102" s="15"/>
+      <c r="E102" s="15"/>
+      <c r="F102" s="15"/>
+      <c r="G102" s="15"/>
+      <c r="H102" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="I102" s="15"/>
+      <c r="J102" s="15"/>
+      <c r="K102" s="15"/>
+      <c r="L102" s="20"/>
+    </row>
+    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A103" s="15"/>
+      <c r="B103" s="19"/>
+      <c r="C103" s="15"/>
+      <c r="D103" s="15"/>
+      <c r="E103" s="15"/>
+      <c r="F103" s="15"/>
+      <c r="G103" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="H103" s="15"/>
+      <c r="I103" s="15"/>
+      <c r="J103" s="15"/>
+      <c r="K103" s="15"/>
+      <c r="L103" s="20"/>
+    </row>
+    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A104" s="15"/>
+      <c r="B104" s="19"/>
+      <c r="C104" s="15"/>
+      <c r="D104" s="15"/>
+      <c r="E104" s="15"/>
+      <c r="F104" s="15"/>
+      <c r="G104" s="15"/>
+      <c r="H104" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="I104" s="15"/>
+      <c r="J104" s="15"/>
+      <c r="K104" s="15"/>
+      <c r="L104" s="20"/>
+    </row>
+    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A105" s="15"/>
+      <c r="B105" s="19"/>
+      <c r="C105" s="15"/>
+      <c r="D105" s="15"/>
+      <c r="E105" s="15"/>
+      <c r="F105" s="15"/>
+      <c r="G105" s="15"/>
+      <c r="H105" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="I105" s="15"/>
+      <c r="J105" s="15"/>
+      <c r="K105" s="15"/>
+      <c r="L105" s="20"/>
+    </row>
+    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A106" s="15"/>
+      <c r="B106" s="19"/>
+      <c r="C106" s="15"/>
+      <c r="D106" s="15"/>
+      <c r="E106" s="15"/>
+      <c r="F106" s="15"/>
+      <c r="G106" s="15"/>
+      <c r="H106" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="I106" s="15"/>
+      <c r="J106" s="15"/>
+      <c r="K106" s="15"/>
+      <c r="L106" s="20"/>
+    </row>
+    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A107" s="15"/>
+      <c r="B107" s="19"/>
+      <c r="C107" s="15"/>
+      <c r="D107" s="15"/>
+      <c r="E107" s="15"/>
+      <c r="F107" s="15"/>
+      <c r="G107" s="15"/>
+      <c r="H107" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="I107" s="15"/>
+      <c r="J107" s="15"/>
+      <c r="K107" s="15"/>
+      <c r="L107" s="20"/>
+    </row>
+    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A108" s="15"/>
+      <c r="B108" s="19"/>
+      <c r="C108" s="15"/>
+      <c r="D108" s="15"/>
+      <c r="E108" s="15"/>
+      <c r="F108" s="15"/>
+      <c r="G108" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="H108" s="15"/>
+      <c r="I108" s="15"/>
+      <c r="J108" s="15"/>
+      <c r="K108" s="15"/>
+      <c r="L108" s="20"/>
+    </row>
+    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A109" s="15"/>
+      <c r="B109" s="19"/>
+      <c r="C109" s="15"/>
+      <c r="D109" s="15"/>
+      <c r="E109" s="15"/>
+      <c r="F109" s="15"/>
+      <c r="G109" s="15"/>
+      <c r="H109" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="I109" s="15"/>
+      <c r="J109" s="15"/>
+      <c r="K109" s="15"/>
+      <c r="L109" s="20"/>
+    </row>
+    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A110" s="15"/>
+      <c r="B110" s="19"/>
+      <c r="C110" s="15"/>
+      <c r="D110" s="15"/>
+      <c r="E110" s="15"/>
+      <c r="F110" s="15"/>
+      <c r="G110" s="15"/>
+      <c r="H110" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="I110" s="15"/>
+      <c r="J110" s="15"/>
+      <c r="K110" s="15"/>
+      <c r="L110" s="20"/>
+    </row>
+    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A111" s="15"/>
+      <c r="B111" s="19"/>
+      <c r="C111" s="15"/>
+      <c r="D111" s="15"/>
+      <c r="E111" s="15"/>
+      <c r="F111" s="15"/>
+      <c r="G111" s="15"/>
+      <c r="H111" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="I111" s="15"/>
+      <c r="J111" s="15"/>
+      <c r="K111" s="15"/>
+      <c r="L111" s="20"/>
+    </row>
+    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A112" s="15"/>
+      <c r="B112" s="19"/>
+      <c r="C112" s="15"/>
+      <c r="D112" s="15"/>
+      <c r="E112" s="15"/>
+      <c r="F112" s="15"/>
+      <c r="G112" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="H112" s="15"/>
+      <c r="I112" s="15"/>
+      <c r="J112" s="15"/>
+      <c r="K112" s="15"/>
+      <c r="L112" s="20"/>
+    </row>
+    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A113" s="15"/>
+      <c r="B113" s="19"/>
+      <c r="C113" s="15"/>
+      <c r="D113" s="15"/>
+      <c r="E113" s="15"/>
+      <c r="F113" s="15"/>
+      <c r="G113" s="15"/>
+      <c r="H113" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="I113" s="15"/>
+      <c r="J113" s="15"/>
+      <c r="K113" s="15"/>
+      <c r="L113" s="20"/>
+    </row>
+    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A114" s="15"/>
+      <c r="B114" s="19"/>
+      <c r="C114" s="15"/>
+      <c r="D114" s="15"/>
+      <c r="E114" s="15"/>
+      <c r="F114" s="15"/>
+      <c r="G114" s="15"/>
+      <c r="H114" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="I114" s="15"/>
+      <c r="J114" s="15"/>
+      <c r="K114" s="15"/>
+      <c r="L114" s="20"/>
+    </row>
+    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A115" s="15"/>
+      <c r="B115" s="19"/>
+      <c r="C115" s="15"/>
+      <c r="D115" s="15"/>
+      <c r="E115" s="15"/>
+      <c r="F115" s="15"/>
+      <c r="G115" s="15"/>
+      <c r="H115" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="I115" s="15"/>
+      <c r="J115" s="15"/>
+      <c r="K115" s="15"/>
+      <c r="L115" s="20"/>
+    </row>
+    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A116" s="15"/>
+      <c r="B116" s="19"/>
+      <c r="C116" s="15"/>
+      <c r="D116" s="15"/>
+      <c r="E116" s="15"/>
+      <c r="F116" s="15"/>
+      <c r="G116" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="H116" s="15"/>
+      <c r="I116" s="15"/>
+      <c r="J116" s="15"/>
+      <c r="K116" s="15"/>
+      <c r="L116" s="20"/>
+    </row>
+    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A117" s="15"/>
+      <c r="B117" s="19"/>
+      <c r="C117" s="15"/>
+      <c r="D117" s="15"/>
+      <c r="E117" s="15"/>
+      <c r="F117" s="15"/>
+      <c r="G117" s="15"/>
+      <c r="H117" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="I117" s="15"/>
+      <c r="J117" s="15"/>
+      <c r="K117" s="15"/>
+      <c r="L117" s="20"/>
+    </row>
+    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A118" s="15"/>
+      <c r="B118" s="19"/>
+      <c r="C118" s="15"/>
+      <c r="D118" s="15"/>
+      <c r="E118" s="15"/>
+      <c r="F118" s="15"/>
+      <c r="G118" s="15"/>
+      <c r="H118" s="15"/>
+      <c r="I118" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="J118" s="15"/>
+      <c r="K118" s="15"/>
+      <c r="L118" s="20"/>
+    </row>
+    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A119" s="15"/>
+      <c r="B119" s="19"/>
+      <c r="C119" s="15"/>
+      <c r="D119" s="15"/>
+      <c r="E119" s="15"/>
+      <c r="F119" s="15"/>
+      <c r="G119" s="15"/>
+      <c r="H119" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="I119" s="15"/>
+      <c r="J119" s="15"/>
+      <c r="K119" s="15"/>
+      <c r="L119" s="20"/>
+    </row>
+    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A120" s="15"/>
+      <c r="B120" s="19"/>
+      <c r="C120" s="15"/>
+      <c r="D120" s="15"/>
+      <c r="E120" s="15"/>
+      <c r="F120" s="15"/>
+      <c r="G120" s="15"/>
+      <c r="H120" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="I120" s="15"/>
+      <c r="J120" s="15"/>
+      <c r="K120" s="15"/>
+      <c r="L120" s="20"/>
+    </row>
+    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A121" s="15"/>
+      <c r="B121" s="19"/>
+      <c r="C121" s="15"/>
+      <c r="D121" s="15"/>
+      <c r="E121" s="15"/>
+      <c r="F121" s="15"/>
+      <c r="G121" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="H121" s="15"/>
+      <c r="I121" s="15"/>
+      <c r="J121" s="15"/>
+      <c r="K121" s="15"/>
+      <c r="L121" s="20"/>
+    </row>
+    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A122" s="15"/>
+      <c r="B122" s="19"/>
+      <c r="C122" s="15"/>
+      <c r="D122" s="15"/>
+      <c r="E122" s="15"/>
+      <c r="F122" s="15"/>
+      <c r="G122" s="15"/>
+      <c r="H122" s="15" t="s">
+        <v>159</v>
+      </c>
+      <c r="I122" s="15"/>
+      <c r="J122" s="15"/>
+      <c r="K122" s="15"/>
+      <c r="L122" s="20"/>
+    </row>
+    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A123" s="15"/>
+      <c r="B123" s="19"/>
+      <c r="C123" s="15"/>
+      <c r="D123" s="15"/>
+      <c r="E123" s="15"/>
+      <c r="F123" s="15"/>
+      <c r="G123" s="15"/>
+      <c r="H123" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="I123" s="15"/>
+      <c r="J123" s="15"/>
+      <c r="K123" s="15"/>
+      <c r="L123" s="20"/>
+    </row>
+    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A124" s="15"/>
+      <c r="B124" s="19"/>
+      <c r="C124" s="15"/>
+      <c r="D124" s="15"/>
+      <c r="E124" s="15"/>
+      <c r="F124" s="15"/>
+      <c r="G124" s="15"/>
+      <c r="H124" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="I124" s="15"/>
+      <c r="J124" s="15"/>
+      <c r="K124" s="15"/>
+      <c r="L124" s="20"/>
+    </row>
+    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A125" s="15"/>
+      <c r="B125" s="19"/>
+      <c r="C125" s="15"/>
+      <c r="D125" s="15"/>
+      <c r="E125" s="15"/>
+      <c r="F125" s="15"/>
+      <c r="G125" s="15"/>
+      <c r="H125" s="15" t="s">
+        <v>162</v>
+      </c>
+      <c r="I125" s="15"/>
+      <c r="J125" s="15"/>
+      <c r="K125" s="15"/>
+      <c r="L125" s="20"/>
+    </row>
+    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A126" s="15"/>
+      <c r="B126" s="19"/>
+      <c r="C126" s="15"/>
+      <c r="D126" s="15"/>
+      <c r="E126" s="15"/>
+      <c r="F126" s="15"/>
+      <c r="G126" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="H126" s="15"/>
+      <c r="I126" s="15"/>
+      <c r="J126" s="15"/>
+      <c r="K126" s="15"/>
+      <c r="L126" s="20"/>
+    </row>
+    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A127" s="15"/>
+      <c r="B127" s="19"/>
+      <c r="C127" s="15"/>
+      <c r="D127" s="15"/>
+      <c r="E127" s="15"/>
+      <c r="F127" s="15"/>
+      <c r="G127" s="15"/>
+      <c r="H127" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="I127" s="15"/>
+      <c r="J127" s="15"/>
+      <c r="K127" s="15"/>
+      <c r="L127" s="20"/>
+    </row>
+    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A128" s="15"/>
+      <c r="B128" s="19"/>
+      <c r="C128" s="15"/>
+      <c r="D128" s="15"/>
+      <c r="E128" s="15"/>
+      <c r="F128" s="15"/>
+      <c r="G128" s="15"/>
+      <c r="H128" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="I128" s="15"/>
+      <c r="J128" s="15"/>
+      <c r="K128" s="15"/>
+      <c r="L128" s="20"/>
+    </row>
+    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A129" s="15"/>
+      <c r="B129" s="19"/>
+      <c r="C129" s="15"/>
+      <c r="D129" s="15"/>
+      <c r="E129" s="15"/>
+      <c r="F129" s="15"/>
+      <c r="G129" s="15"/>
+      <c r="H129" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="I129" s="15"/>
+      <c r="J129" s="15"/>
+      <c r="K129" s="15"/>
+      <c r="L129" s="20"/>
+    </row>
+    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A130" s="15"/>
+      <c r="B130" s="19"/>
+      <c r="C130" s="15"/>
+      <c r="D130" s="15"/>
+      <c r="E130" s="15"/>
+      <c r="F130" s="15"/>
+      <c r="G130" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="H130" s="15"/>
+      <c r="I130" s="15"/>
+      <c r="J130" s="15"/>
+      <c r="K130" s="15"/>
+      <c r="L130" s="20"/>
+    </row>
+    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A131" s="15"/>
+      <c r="B131" s="19"/>
+      <c r="C131" s="15"/>
+      <c r="D131" s="15"/>
+      <c r="E131" s="15"/>
+      <c r="F131" s="15"/>
+      <c r="G131" s="15"/>
+      <c r="H131" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="I131" s="15"/>
+      <c r="J131" s="15"/>
+      <c r="K131" s="15"/>
+      <c r="L131" s="20"/>
+    </row>
+    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A132" s="15"/>
+      <c r="B132" s="19"/>
+      <c r="C132" s="15"/>
+      <c r="D132" s="15"/>
+      <c r="E132" s="15"/>
+      <c r="F132" s="15"/>
+      <c r="G132" s="15"/>
+      <c r="H132" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="I132" s="15"/>
+      <c r="J132" s="15"/>
+      <c r="K132" s="15"/>
+      <c r="L132" s="20"/>
+    </row>
+    <row r="133" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A133" s="15"/>
+      <c r="B133" s="19"/>
+      <c r="C133" s="15"/>
+      <c r="D133" s="15"/>
+      <c r="E133" s="15"/>
+      <c r="F133" s="15"/>
+      <c r="G133" s="15"/>
+      <c r="H133" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="I133" s="15"/>
+      <c r="J133" s="15"/>
+      <c r="K133" s="15"/>
+      <c r="L133" s="20"/>
+    </row>
+    <row r="134" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A134" s="15"/>
+      <c r="B134" s="19"/>
+      <c r="C134" s="15"/>
+      <c r="D134" s="15"/>
+      <c r="E134" s="15"/>
+      <c r="F134" s="15"/>
+      <c r="G134" s="15"/>
+      <c r="H134" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="I134" s="15"/>
+      <c r="J134" s="15"/>
+      <c r="K134" s="15"/>
+      <c r="L134" s="20"/>
+    </row>
+    <row r="135" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A135" s="15"/>
+      <c r="B135" s="19"/>
+      <c r="C135" s="15"/>
+      <c r="D135" s="15"/>
+      <c r="E135" s="15"/>
+      <c r="F135" s="15"/>
+      <c r="G135" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="H135" s="15"/>
+      <c r="I135" s="15"/>
+      <c r="J135" s="15"/>
+      <c r="K135" s="15"/>
+      <c r="L135" s="20"/>
+    </row>
+    <row r="136" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A136" s="15"/>
+      <c r="B136" s="19"/>
+      <c r="C136" s="15"/>
+      <c r="D136" s="15"/>
+      <c r="E136" s="15"/>
+      <c r="F136" s="15"/>
+      <c r="G136" s="15"/>
+      <c r="H136" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="I136" s="15"/>
+      <c r="J136" s="15"/>
+      <c r="K136" s="15"/>
+      <c r="L136" s="20"/>
+    </row>
+    <row r="137" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A137" s="15"/>
+      <c r="B137" s="19"/>
+      <c r="C137" s="15"/>
+      <c r="D137" s="15"/>
+      <c r="E137" s="15"/>
+      <c r="F137" s="15"/>
+      <c r="G137" s="15"/>
+      <c r="H137" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="I137" s="15"/>
+      <c r="J137" s="15"/>
+      <c r="K137" s="15"/>
+      <c r="L137" s="20"/>
+    </row>
+    <row r="138" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A138" s="15"/>
+      <c r="B138" s="19"/>
+      <c r="C138" s="15"/>
+      <c r="D138" s="15"/>
+      <c r="E138" s="15"/>
+      <c r="F138" s="15"/>
+      <c r="G138" s="15"/>
+      <c r="H138" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="I138" s="15"/>
+      <c r="J138" s="15"/>
+      <c r="K138" s="15"/>
+      <c r="L138" s="20"/>
+    </row>
+    <row r="139" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A139" s="15"/>
+      <c r="B139" s="19"/>
+      <c r="C139" s="15"/>
+      <c r="D139" s="15"/>
+      <c r="E139" s="15"/>
+      <c r="F139" s="15"/>
+      <c r="G139" s="15"/>
+      <c r="H139" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="I139" s="15"/>
+      <c r="J139" s="15"/>
+      <c r="K139" s="15"/>
+      <c r="L139" s="20"/>
+    </row>
+    <row r="140" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A140" s="15"/>
+      <c r="B140" s="19"/>
+      <c r="C140" s="15"/>
+      <c r="D140" s="15"/>
+      <c r="E140" s="15"/>
+      <c r="F140" s="15"/>
+      <c r="G140" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="H140" s="15"/>
+      <c r="I140" s="15"/>
+      <c r="J140" s="15"/>
+      <c r="K140" s="15"/>
+      <c r="L140" s="20"/>
+    </row>
+    <row r="141" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A141" s="15"/>
+      <c r="B141" s="19"/>
+      <c r="C141" s="15"/>
+      <c r="D141" s="15"/>
+      <c r="E141" s="15"/>
+      <c r="F141" s="15"/>
+      <c r="G141" s="15"/>
+      <c r="H141" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="I141" s="15"/>
+      <c r="J141" s="15"/>
+      <c r="K141" s="15"/>
+      <c r="L141" s="20"/>
+    </row>
+    <row r="142" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A142" s="15"/>
+      <c r="B142" s="19"/>
+      <c r="C142" s="15"/>
+      <c r="D142" s="15"/>
+      <c r="E142" s="15"/>
+      <c r="F142" s="15"/>
+      <c r="G142" s="15"/>
+      <c r="H142" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="I142" s="15"/>
+      <c r="J142" s="15"/>
+      <c r="K142" s="15"/>
+      <c r="L142" s="20"/>
+    </row>
+    <row r="143" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A143" s="15"/>
+      <c r="B143" s="19"/>
+      <c r="C143" s="15"/>
+      <c r="D143" s="15"/>
+      <c r="E143" s="15"/>
+      <c r="F143" s="15"/>
+      <c r="G143" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="H143" s="15"/>
+      <c r="I143" s="15"/>
+      <c r="J143" s="15"/>
+      <c r="K143" s="15"/>
+      <c r="L143" s="20"/>
+    </row>
+    <row r="144" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A144" s="15"/>
+      <c r="B144" s="19"/>
+      <c r="C144" s="15"/>
+      <c r="D144" s="15"/>
+      <c r="E144" s="15"/>
+      <c r="F144" s="15"/>
+      <c r="G144" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="H144" s="15"/>
+      <c r="I144" s="15"/>
+      <c r="J144" s="15"/>
+      <c r="K144" s="15"/>
+      <c r="L144" s="20"/>
+    </row>
+    <row r="145" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A145" s="15"/>
+      <c r="B145" s="19"/>
+      <c r="C145" s="15"/>
+      <c r="D145" s="15"/>
+      <c r="E145" s="15"/>
+      <c r="F145" s="15"/>
+      <c r="G145" s="15"/>
+      <c r="H145" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="I145" s="15"/>
+      <c r="J145" s="15"/>
+      <c r="K145" s="15"/>
+      <c r="L145" s="20"/>
+    </row>
+    <row r="146" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A146" s="15"/>
+      <c r="B146" s="19"/>
+      <c r="C146" s="15"/>
+      <c r="D146" s="15"/>
+      <c r="E146" s="15"/>
+      <c r="F146" s="15"/>
+      <c r="G146" s="15"/>
+      <c r="H146" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="I146" s="15"/>
+      <c r="J146" s="15"/>
+      <c r="K146" s="15"/>
+      <c r="L146" s="20"/>
+    </row>
+    <row r="147" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A147" s="15"/>
+      <c r="B147" s="19"/>
+      <c r="C147" s="15"/>
+      <c r="D147" s="15"/>
+      <c r="E147" s="15"/>
+      <c r="F147" s="15"/>
+      <c r="G147" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="H147" s="15"/>
+      <c r="I147" s="15"/>
+      <c r="J147" s="15"/>
+      <c r="K147" s="15"/>
+      <c r="L147" s="20"/>
+    </row>
+    <row r="148" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A148" s="15"/>
+      <c r="B148" s="19"/>
+      <c r="C148" s="15"/>
+      <c r="D148" s="15"/>
+      <c r="E148" s="15"/>
+      <c r="F148" s="15"/>
+      <c r="G148" s="15"/>
+      <c r="H148" s="15" t="s">
+        <v>129</v>
+      </c>
+      <c r="I148" s="15"/>
+      <c r="J148" s="15"/>
+      <c r="K148" s="15"/>
+      <c r="L148" s="20"/>
+    </row>
+    <row r="149" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A149" s="15"/>
+      <c r="B149" s="19"/>
+      <c r="C149" s="15"/>
+      <c r="D149" s="15"/>
+      <c r="E149" s="15"/>
+      <c r="F149" s="15"/>
+      <c r="G149" s="15"/>
+      <c r="H149" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="I149" s="15"/>
+      <c r="J149" s="15"/>
+      <c r="K149" s="15"/>
+      <c r="L149" s="20"/>
+    </row>
+    <row r="150" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A150" s="15"/>
+      <c r="B150" s="19"/>
+      <c r="C150" s="15"/>
+      <c r="D150" s="15"/>
+      <c r="E150" s="15"/>
+      <c r="F150" s="15"/>
+      <c r="G150" s="15"/>
+      <c r="H150" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="I150" s="15"/>
+      <c r="J150" s="15"/>
+      <c r="K150" s="15"/>
+      <c r="L150" s="20"/>
+    </row>
+    <row r="151" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A151" s="15"/>
+      <c r="B151" s="19"/>
+      <c r="C151" s="15"/>
+      <c r="D151" s="15"/>
+      <c r="E151" s="15"/>
+      <c r="F151" s="15"/>
+      <c r="G151" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="H151" s="15"/>
+      <c r="I151" s="15"/>
+      <c r="J151" s="15"/>
+      <c r="K151" s="15"/>
+      <c r="L151" s="20"/>
+    </row>
+    <row r="152" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A152" s="15"/>
+      <c r="B152" s="19"/>
+      <c r="C152" s="15"/>
+      <c r="D152" s="15"/>
+      <c r="E152" s="15"/>
+      <c r="F152" s="15"/>
+      <c r="G152" s="15"/>
+      <c r="H152" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="I152" s="15"/>
+      <c r="J152" s="15"/>
+      <c r="K152" s="15"/>
+      <c r="L152" s="20"/>
+    </row>
+    <row r="153" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A153" s="15"/>
+      <c r="B153" s="19"/>
+      <c r="C153" s="15"/>
+      <c r="D153" s="15"/>
+      <c r="E153" s="15"/>
+      <c r="F153" s="15"/>
+      <c r="G153" s="15"/>
+      <c r="H153" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="I153" s="15"/>
+      <c r="J153" s="15"/>
+      <c r="K153" s="15"/>
+      <c r="L153" s="20"/>
+    </row>
+    <row r="154" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A154" s="15"/>
+      <c r="B154" s="19"/>
+      <c r="C154" s="15"/>
+      <c r="D154" s="15"/>
+      <c r="E154" s="15"/>
+      <c r="F154" s="15"/>
+      <c r="G154" s="15"/>
+      <c r="H154" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="I154" s="15"/>
+      <c r="J154" s="15"/>
+      <c r="K154" s="15"/>
+      <c r="L154" s="20"/>
+    </row>
+    <row r="155" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A155" s="15"/>
+      <c r="B155" s="19"/>
+      <c r="C155" s="15"/>
+      <c r="D155" s="15"/>
+      <c r="E155" s="15"/>
+      <c r="F155" s="15"/>
+      <c r="G155" s="6" t="s">
+        <v>390</v>
+      </c>
+      <c r="H155" s="15"/>
+      <c r="I155" s="15"/>
+      <c r="J155" s="15"/>
+      <c r="K155" s="15"/>
+      <c r="L155" s="20"/>
+      <c r="M155" t="s">
+        <v>164</v>
+      </c>
+      <c r="N155" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="156" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A156" s="15"/>
+      <c r="B156" s="19"/>
+      <c r="C156" s="15"/>
+      <c r="D156" s="15"/>
+      <c r="E156" s="15"/>
+      <c r="F156" s="15"/>
+      <c r="G156" s="15"/>
+      <c r="H156" s="6" t="s">
+        <v>391</v>
+      </c>
+      <c r="I156" s="15"/>
+      <c r="J156" s="15"/>
+      <c r="K156" s="15"/>
+      <c r="L156" s="20"/>
+    </row>
+    <row r="157" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A157" s="15"/>
+      <c r="B157" s="19"/>
+      <c r="C157" s="15"/>
+      <c r="D157" s="15"/>
+      <c r="E157" s="15"/>
+      <c r="F157" s="15"/>
+      <c r="G157" s="15"/>
+      <c r="H157" s="6" t="s">
+        <v>392</v>
+      </c>
+      <c r="I157" s="15"/>
+      <c r="J157" s="15"/>
+      <c r="K157" s="15"/>
+      <c r="L157" s="20"/>
+    </row>
+    <row r="158" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A158" s="15"/>
+      <c r="B158" s="19"/>
+      <c r="C158" s="15"/>
+      <c r="D158" s="15"/>
+      <c r="E158" s="15"/>
+      <c r="F158" s="15"/>
+      <c r="G158" s="15"/>
+      <c r="H158" s="6" t="s">
+        <v>393</v>
+      </c>
+      <c r="I158" s="15"/>
+      <c r="J158" s="15"/>
+      <c r="K158" s="15"/>
+      <c r="L158" s="20"/>
+    </row>
+    <row r="159" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A159" s="15"/>
+      <c r="B159" s="19"/>
+      <c r="C159" s="15"/>
+      <c r="D159" s="15"/>
+      <c r="E159" s="15"/>
+      <c r="F159" s="15"/>
+      <c r="G159" s="15"/>
+      <c r="H159" s="6" t="s">
+        <v>394</v>
+      </c>
+      <c r="I159" s="15"/>
+      <c r="J159" s="15"/>
+      <c r="K159" s="15"/>
+      <c r="L159" s="20"/>
+    </row>
+    <row r="160" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A160" s="15"/>
+      <c r="B160" s="19"/>
+      <c r="C160" s="15"/>
+      <c r="D160" s="15"/>
+      <c r="E160" s="15"/>
+      <c r="F160" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="G160" s="15"/>
+      <c r="H160" s="15"/>
+      <c r="I160" s="15"/>
+      <c r="J160" s="15"/>
+      <c r="K160" s="15"/>
+      <c r="L160" s="20"/>
+    </row>
+    <row r="161" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A161" s="15"/>
+      <c r="B161" s="19"/>
+      <c r="C161" s="15"/>
+      <c r="D161" s="15"/>
+      <c r="E161" s="15"/>
+      <c r="F161" s="15"/>
+      <c r="G161" s="15" t="s">
+        <v>170</v>
+      </c>
+      <c r="H161" s="15"/>
+      <c r="I161" s="15"/>
+      <c r="J161" s="15"/>
+      <c r="K161" s="15"/>
+      <c r="L161" s="20"/>
+    </row>
+    <row r="162" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A162" s="15"/>
+      <c r="B162" s="19"/>
+      <c r="C162" s="15"/>
+      <c r="D162" s="15"/>
+      <c r="E162" s="15"/>
+      <c r="F162" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="G162" s="15"/>
+      <c r="H162" s="15"/>
+      <c r="I162" s="15"/>
+      <c r="J162" s="15"/>
+      <c r="K162" s="15"/>
+      <c r="L162" s="20"/>
+    </row>
+    <row r="163" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A163" s="15"/>
+      <c r="B163" s="19"/>
+      <c r="C163" s="15"/>
+      <c r="D163" s="15"/>
+      <c r="E163" s="15"/>
+      <c r="F163" s="15"/>
+      <c r="G163" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="H163" s="15"/>
+      <c r="I163" s="15"/>
+      <c r="J163" s="15"/>
+      <c r="K163" s="15"/>
+      <c r="L163" s="20"/>
+    </row>
+    <row r="164" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A164" s="15"/>
+      <c r="B164" s="19"/>
+      <c r="C164" s="15"/>
+      <c r="D164" s="15"/>
+      <c r="E164" s="15"/>
+      <c r="F164" s="15"/>
+      <c r="G164" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="H164" s="15"/>
+      <c r="I164" s="15"/>
+      <c r="J164" s="15"/>
+      <c r="K164" s="15"/>
+      <c r="L164" s="20"/>
+    </row>
+    <row r="165" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A165" s="15"/>
+      <c r="B165" s="19"/>
+      <c r="C165" s="15"/>
+      <c r="D165" s="15"/>
+      <c r="E165" s="15"/>
+      <c r="F165" s="15"/>
+      <c r="G165" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="H165" s="15"/>
+      <c r="I165" s="15"/>
+      <c r="J165" s="15"/>
+      <c r="K165" s="15"/>
+      <c r="L165" s="20"/>
+    </row>
+    <row r="166" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A166" s="15"/>
+      <c r="B166" s="19"/>
+      <c r="C166" s="15"/>
+      <c r="D166" s="15"/>
+      <c r="E166" s="15"/>
+      <c r="F166" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="G166" s="15"/>
+      <c r="H166" s="15"/>
+      <c r="I166" s="15"/>
+      <c r="J166" s="15"/>
+      <c r="K166" s="15"/>
+      <c r="L166" s="20"/>
+    </row>
+    <row r="167" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A167" s="15"/>
+      <c r="B167" s="19"/>
+      <c r="C167" s="15"/>
+      <c r="D167" s="15"/>
+      <c r="E167" s="15"/>
+      <c r="F167" s="15"/>
+      <c r="G167" s="15" t="s">
+        <v>141</v>
+      </c>
+      <c r="H167" s="15"/>
+      <c r="I167" s="15"/>
+      <c r="J167" s="15"/>
+      <c r="K167" s="15"/>
+      <c r="L167" s="20"/>
+    </row>
+    <row r="168" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A168" s="15"/>
+      <c r="B168" s="19"/>
+      <c r="C168" s="15"/>
+      <c r="D168" s="15"/>
+      <c r="E168" s="15"/>
+      <c r="F168" s="15"/>
+      <c r="G168" s="15"/>
+      <c r="H168" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="I168" s="15"/>
+      <c r="J168" s="15"/>
+      <c r="K168" s="15"/>
+      <c r="L168" s="20"/>
+    </row>
+    <row r="169" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A169" s="15"/>
+      <c r="B169" s="19"/>
+      <c r="C169" s="15"/>
+      <c r="D169" s="15"/>
+      <c r="E169" s="15"/>
+      <c r="F169" s="15"/>
+      <c r="G169" s="15"/>
+      <c r="H169" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="I169" s="15"/>
+      <c r="J169" s="15"/>
+      <c r="K169" s="15"/>
+      <c r="L169" s="20"/>
+    </row>
+    <row r="170" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A170" s="15"/>
+      <c r="B170" s="19"/>
+      <c r="C170" s="15"/>
+      <c r="D170" s="15"/>
+      <c r="E170" s="15"/>
+      <c r="F170" s="15"/>
+      <c r="G170" s="15"/>
+      <c r="H170" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="I170" s="15"/>
+      <c r="J170" s="15"/>
+      <c r="K170" s="15"/>
+      <c r="L170" s="20"/>
+    </row>
+    <row r="171" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A171" s="15"/>
+      <c r="B171" s="19"/>
+      <c r="C171" s="15"/>
+      <c r="D171" s="15"/>
+      <c r="E171" s="15"/>
+      <c r="F171" s="15"/>
+      <c r="G171" s="15"/>
+      <c r="H171" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="I171" s="15"/>
+      <c r="J171" s="15"/>
+      <c r="K171" s="15"/>
+      <c r="L171" s="20"/>
+    </row>
+    <row r="172" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A172" s="15"/>
+      <c r="B172" s="19"/>
+      <c r="C172" s="15"/>
+      <c r="D172" s="15"/>
+      <c r="E172" s="15"/>
+      <c r="F172" s="15"/>
+      <c r="G172" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="H172" s="15"/>
+      <c r="I172" s="15"/>
+      <c r="J172" s="15"/>
+      <c r="K172" s="15"/>
+      <c r="L172" s="20"/>
+    </row>
+    <row r="173" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A173" s="15"/>
+      <c r="B173" s="19"/>
+      <c r="C173" s="15"/>
+      <c r="D173" s="15"/>
+      <c r="E173" s="15"/>
+      <c r="F173" s="15"/>
+      <c r="G173" s="15"/>
+      <c r="H173" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="I173" s="15"/>
+      <c r="J173" s="15"/>
+      <c r="K173" s="15"/>
+      <c r="L173" s="20"/>
+    </row>
+    <row r="174" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A174" s="15"/>
+      <c r="B174" s="19"/>
+      <c r="C174" s="15"/>
+      <c r="D174" s="15"/>
+      <c r="E174" s="15"/>
+      <c r="F174" s="15"/>
+      <c r="G174" s="15"/>
+      <c r="H174" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="I174" s="15"/>
+      <c r="J174" s="15"/>
+      <c r="K174" s="15"/>
+      <c r="L174" s="20"/>
+    </row>
+    <row r="175" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A175" s="15"/>
+      <c r="B175" s="19"/>
+      <c r="C175" s="15"/>
+      <c r="D175" s="15"/>
+      <c r="E175" s="15"/>
+      <c r="F175" s="15"/>
+      <c r="G175" s="15"/>
+      <c r="H175" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="I175" s="15"/>
+      <c r="J175" s="15"/>
+      <c r="K175" s="15"/>
+      <c r="L175" s="20"/>
+    </row>
+    <row r="176" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A176" s="15"/>
+      <c r="B176" s="19"/>
+      <c r="C176" s="15"/>
+      <c r="D176" s="15"/>
+      <c r="E176" s="15"/>
+      <c r="F176" s="15"/>
+      <c r="G176" s="15"/>
+      <c r="H176" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="I176" s="15"/>
+      <c r="J176" s="15"/>
+      <c r="K176" s="15"/>
+      <c r="L176" s="20"/>
+    </row>
+    <row r="177" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A177" s="15"/>
+      <c r="B177" s="19"/>
+      <c r="C177" s="15"/>
+      <c r="D177" s="15"/>
+      <c r="E177" s="15"/>
+      <c r="F177" s="15"/>
+      <c r="G177" s="15"/>
+      <c r="H177" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="I177" s="15"/>
+      <c r="J177" s="15"/>
+      <c r="K177" s="15"/>
+      <c r="L177" s="20"/>
+    </row>
+    <row r="178" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A178" s="15"/>
+      <c r="B178" s="19"/>
+      <c r="C178" s="15"/>
+      <c r="D178" s="15"/>
+      <c r="E178" s="15"/>
+      <c r="F178" s="15"/>
+      <c r="G178" s="15"/>
+      <c r="H178" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="I178" s="15"/>
+      <c r="J178" s="15"/>
+      <c r="K178" s="15"/>
+      <c r="L178" s="20"/>
+    </row>
+    <row r="179" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A179" s="15"/>
+      <c r="B179" s="19"/>
+      <c r="C179" s="15"/>
+      <c r="D179" s="15"/>
+      <c r="E179" s="15"/>
+      <c r="F179" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="G179" s="15"/>
+      <c r="H179" s="15"/>
+      <c r="I179" s="15"/>
+      <c r="J179" s="15"/>
+      <c r="K179" s="15"/>
+      <c r="L179" s="20"/>
+    </row>
+    <row r="180" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A180" s="15"/>
+      <c r="B180" s="19"/>
+      <c r="C180" s="15"/>
+      <c r="D180" s="15"/>
+      <c r="E180" s="15"/>
+      <c r="F180" s="15"/>
+      <c r="G180" s="15" t="s">
+        <v>154</v>
+      </c>
+      <c r="H180" s="15"/>
+      <c r="I180" s="15"/>
+      <c r="J180" s="15"/>
+      <c r="K180" s="15"/>
+      <c r="L180" s="20"/>
+    </row>
+    <row r="181" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A181" s="15"/>
+      <c r="B181" s="19"/>
+      <c r="C181" s="15"/>
+      <c r="D181" s="15"/>
+      <c r="E181" s="15"/>
+      <c r="F181" s="15"/>
+      <c r="G181" s="15" t="s">
+        <v>155</v>
+      </c>
+      <c r="H181" s="15"/>
+      <c r="I181" s="15"/>
+      <c r="J181" s="15"/>
+      <c r="K181" s="15"/>
+      <c r="L181" s="20"/>
+    </row>
+    <row r="182" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A182" s="15"/>
+      <c r="B182" s="19"/>
+      <c r="C182" s="15"/>
+      <c r="D182" s="15"/>
+      <c r="E182" s="15"/>
+      <c r="F182" s="15"/>
+      <c r="G182" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="H182" s="15"/>
+      <c r="I182" s="15"/>
+      <c r="J182" s="15"/>
+      <c r="K182" s="15"/>
+      <c r="L182" s="20"/>
+    </row>
+    <row r="183" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A183" s="15"/>
+      <c r="B183" s="19"/>
+      <c r="C183" s="15"/>
+      <c r="D183" s="15" t="s">
+        <v>157</v>
+      </c>
+      <c r="E183" s="15"/>
+      <c r="F183" s="15"/>
+      <c r="G183" s="15"/>
+      <c r="H183" s="15"/>
+      <c r="I183" s="15"/>
+      <c r="J183" s="15"/>
+      <c r="K183" s="15"/>
+      <c r="L183" s="20"/>
+    </row>
+    <row r="184" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A184" s="15"/>
+      <c r="B184" s="21"/>
+      <c r="C184" s="22"/>
+      <c r="D184" s="22"/>
+      <c r="E184" s="22"/>
+      <c r="F184" s="22"/>
+      <c r="G184" s="22"/>
+      <c r="H184" s="22"/>
+      <c r="I184" s="22"/>
+      <c r="J184" s="22"/>
+      <c r="K184" s="22"/>
+      <c r="L184" s="23"/>
+    </row>
+    <row r="187" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="188" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B188" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="C188" s="2"/>
+      <c r="D188" s="2"/>
+      <c r="E188" s="2"/>
+      <c r="F188" s="3"/>
+    </row>
+    <row r="189" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B189" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="C189" s="24"/>
+      <c r="D189" s="24"/>
+      <c r="E189" s="24"/>
+      <c r="F189" s="5"/>
+    </row>
+    <row r="190" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B190" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="C190" s="24"/>
+      <c r="D190" s="24"/>
+      <c r="E190" s="24"/>
+      <c r="F190" s="5"/>
+    </row>
+    <row r="191" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B191" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="C191" s="24"/>
+      <c r="D191" s="24"/>
+      <c r="E191" s="24"/>
+      <c r="F191" s="5"/>
+    </row>
+    <row r="192" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B192" s="4" t="s">
+        <v>378</v>
+      </c>
+      <c r="C192" s="24"/>
+      <c r="D192" s="24"/>
+      <c r="E192" s="24"/>
+      <c r="F192" s="5"/>
+    </row>
+    <row r="193" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B193" s="4" t="s">
+        <v>379</v>
+      </c>
+      <c r="C193" s="24"/>
+      <c r="D193" s="24"/>
+      <c r="E193" s="24"/>
+      <c r="F193" s="5"/>
+    </row>
+    <row r="194" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B194" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="C194" s="24"/>
+      <c r="D194" s="24"/>
+      <c r="E194" s="24"/>
+      <c r="F194" s="5"/>
+    </row>
+    <row r="195" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B195" s="4"/>
+      <c r="C195" s="24"/>
+      <c r="D195" s="24"/>
+      <c r="E195" s="24"/>
+      <c r="F195" s="5"/>
+    </row>
+    <row r="196" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B196" s="4" t="s">
+        <v>380</v>
+      </c>
+      <c r="C196" s="24"/>
+      <c r="D196" s="24"/>
+      <c r="E196" s="24"/>
+      <c r="F196" s="5"/>
+    </row>
+    <row r="197" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B197" s="4" t="s">
+        <v>381</v>
+      </c>
+      <c r="C197" s="24"/>
+      <c r="D197" s="24"/>
+      <c r="E197" s="24"/>
+      <c r="F197" s="5"/>
+    </row>
+    <row r="198" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B198" s="4" t="s">
+        <v>382</v>
+      </c>
+      <c r="C198" s="24"/>
+      <c r="D198" s="24"/>
+      <c r="E198" s="24"/>
+      <c r="F198" s="5"/>
+    </row>
+    <row r="199" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B199" s="4" t="s">
+        <v>383</v>
+      </c>
+      <c r="C199" s="24"/>
+      <c r="D199" s="24"/>
+      <c r="E199" s="24"/>
+      <c r="F199" s="5"/>
+    </row>
+    <row r="200" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B200" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="C200" s="24"/>
+      <c r="D200" s="24"/>
+      <c r="E200" s="24"/>
+      <c r="F200" s="5"/>
+    </row>
+    <row r="201" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B201" s="4"/>
+      <c r="C201" s="24"/>
+      <c r="D201" s="24"/>
+      <c r="E201" s="24"/>
+      <c r="F201" s="5"/>
+    </row>
+    <row r="202" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B202" s="4" t="s">
+        <v>384</v>
+      </c>
+      <c r="C202" s="24"/>
+      <c r="D202" s="24"/>
+      <c r="E202" s="24"/>
+      <c r="F202" s="5"/>
+    </row>
+    <row r="203" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B203" s="4" t="s">
+        <v>385</v>
+      </c>
+      <c r="C203" s="24"/>
+      <c r="D203" s="24"/>
+      <c r="E203" s="24"/>
+      <c r="F203" s="5"/>
+    </row>
+    <row r="204" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B204" s="4" t="s">
+        <v>386</v>
+      </c>
+      <c r="C204" s="24"/>
+      <c r="D204" s="24"/>
+      <c r="E204" s="24"/>
+      <c r="F204" s="5"/>
+    </row>
+    <row r="205" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B205" s="4" t="s">
+        <v>387</v>
+      </c>
+      <c r="C205" s="24"/>
+      <c r="D205" s="24"/>
+      <c r="E205" s="24"/>
+      <c r="F205" s="5"/>
+    </row>
+    <row r="206" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B206" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="C206" s="24"/>
+      <c r="D206" s="24"/>
+      <c r="E206" s="24"/>
+      <c r="F206" s="5"/>
+    </row>
+    <row r="207" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B207" s="4"/>
+      <c r="C207" s="24"/>
+      <c r="D207" s="24"/>
+      <c r="E207" s="24"/>
+      <c r="F207" s="5"/>
+    </row>
+    <row r="208" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B208" s="4" t="s">
+        <v>388</v>
+      </c>
+      <c r="C208" s="24"/>
+      <c r="D208" s="24"/>
+      <c r="E208" s="24"/>
+      <c r="F208" s="5"/>
+    </row>
+    <row r="209" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B209" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="C209" s="24"/>
+      <c r="D209" s="24"/>
+      <c r="E209" s="24"/>
+      <c r="F209" s="5"/>
+    </row>
+    <row r="210" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B210" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="C210" s="8"/>
+      <c r="D210" s="8"/>
+      <c r="E210" s="8"/>
+      <c r="F210" s="9"/>
+    </row>
+    <row r="213" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A213" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="214" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B214" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C214" s="2"/>
+      <c r="D214" s="2"/>
+      <c r="E214" s="2"/>
+      <c r="F214" s="2"/>
+      <c r="G214" s="2"/>
+      <c r="H214" s="2"/>
+      <c r="I214" s="2"/>
+      <c r="J214" s="3"/>
+    </row>
+    <row r="215" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B215" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="C215" s="24"/>
+      <c r="D215" s="24"/>
+      <c r="E215" s="24"/>
+      <c r="F215" s="24"/>
+      <c r="G215" s="24"/>
+      <c r="H215" s="24"/>
+      <c r="I215" s="24"/>
+      <c r="J215" s="5"/>
+    </row>
+    <row r="216" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B216" s="4" t="s">
+        <v>396</v>
+      </c>
+      <c r="C216" s="24"/>
+      <c r="D216" s="24"/>
+      <c r="E216" s="24"/>
+      <c r="F216" s="24"/>
+      <c r="G216" s="24"/>
+      <c r="H216" s="24"/>
+      <c r="I216" s="24"/>
+      <c r="J216" s="5"/>
+    </row>
+    <row r="217" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B217" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="C217" s="24"/>
+      <c r="D217" s="24"/>
+      <c r="E217" s="24"/>
+      <c r="F217" s="24"/>
+      <c r="G217" s="24"/>
+      <c r="H217" s="24"/>
+      <c r="I217" s="24"/>
+      <c r="J217" s="5"/>
+    </row>
+    <row r="218" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B218" s="4"/>
+      <c r="C218" s="24"/>
+      <c r="D218" s="24"/>
+      <c r="E218" s="24"/>
+      <c r="F218" s="24"/>
+      <c r="G218" s="24"/>
+      <c r="H218" s="24"/>
+      <c r="I218" s="24"/>
+      <c r="J218" s="5"/>
+    </row>
+    <row r="219" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B219" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="C219" s="24"/>
+      <c r="D219" s="24"/>
+      <c r="E219" s="24"/>
+      <c r="F219" s="24"/>
+      <c r="G219" s="24"/>
+      <c r="H219" s="24"/>
+      <c r="I219" s="24"/>
+      <c r="J219" s="5"/>
+    </row>
+    <row r="220" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B220" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="C220" s="24"/>
+      <c r="D220" s="24"/>
+      <c r="E220" s="24"/>
+      <c r="F220" s="24"/>
+      <c r="G220" s="24"/>
+      <c r="H220" s="24"/>
+      <c r="I220" s="24"/>
+      <c r="J220" s="5"/>
+    </row>
+    <row r="221" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B221" s="11" t="s">
+        <v>185</v>
+      </c>
+      <c r="C221" s="24"/>
+      <c r="D221" s="24"/>
+      <c r="E221" s="24"/>
+      <c r="F221" s="24"/>
+      <c r="G221" s="24"/>
+      <c r="H221" s="24"/>
+      <c r="I221" s="24"/>
+      <c r="J221" s="5"/>
+    </row>
+    <row r="222" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B222" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="C222" s="24"/>
+      <c r="D222" s="24"/>
+      <c r="E222" s="24"/>
+      <c r="F222" s="24"/>
+      <c r="G222" s="24"/>
+      <c r="H222" s="24"/>
+      <c r="I222" s="24"/>
+      <c r="J222" s="5"/>
+    </row>
+    <row r="223" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B223" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="C223" s="8"/>
+      <c r="D223" s="8"/>
+      <c r="E223" s="8"/>
+      <c r="F223" s="8"/>
+      <c r="G223" s="8"/>
+      <c r="H223" s="8"/>
+      <c r="I223" s="8"/>
+      <c r="J223" s="9"/>
+    </row>
+    <row r="226" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A226" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="227" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B227" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="C227" s="2"/>
+      <c r="D227" s="2"/>
+      <c r="E227" s="2"/>
+      <c r="F227" s="3"/>
+      <c r="G227" t="s">
+        <v>164</v>
+      </c>
+      <c r="H227" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="228" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B228" s="7"/>
+      <c r="C228" s="8"/>
+      <c r="D228" s="8"/>
+      <c r="E228" s="8"/>
+      <c r="F228" s="9"/>
+    </row>
+    <row r="231" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A231" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="232" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B232" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C232" s="2"/>
+      <c r="D232" s="2"/>
+      <c r="E232" s="2"/>
+      <c r="F232" s="2"/>
+      <c r="G232" s="2"/>
+      <c r="H232" s="3"/>
+    </row>
+    <row r="233" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B233" s="4" t="s">
+        <v>400</v>
+      </c>
+      <c r="C233" s="24"/>
+      <c r="D233" s="24"/>
+      <c r="E233" s="24"/>
+      <c r="F233" s="24"/>
+      <c r="G233" s="24"/>
+      <c r="H233" s="5"/>
+    </row>
+    <row r="234" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B234" s="4" t="s">
+        <v>401</v>
+      </c>
+      <c r="C234" s="24"/>
+      <c r="D234" s="24"/>
+      <c r="E234" s="24"/>
+      <c r="F234" s="24"/>
+      <c r="G234" s="24"/>
+      <c r="H234" s="5"/>
+    </row>
+    <row r="235" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B235" s="4" t="s">
+        <v>402</v>
+      </c>
+      <c r="C235" s="24"/>
+      <c r="D235" s="24"/>
+      <c r="E235" s="24"/>
+      <c r="F235" s="24"/>
+      <c r="G235" s="24"/>
+      <c r="H235" s="5"/>
+    </row>
+    <row r="236" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B236" s="4" t="s">
+        <v>403</v>
+      </c>
+      <c r="C236" s="24"/>
+      <c r="D236" s="24"/>
+      <c r="E236" s="24"/>
+      <c r="F236" s="24"/>
+      <c r="G236" s="24"/>
+      <c r="H236" s="5"/>
+    </row>
+    <row r="237" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B237" s="4" t="s">
+        <v>404</v>
+      </c>
+      <c r="C237" s="24"/>
+      <c r="D237" s="24"/>
+      <c r="E237" s="24"/>
+      <c r="F237" s="24"/>
+      <c r="G237" s="24"/>
+      <c r="H237" s="5"/>
+    </row>
+    <row r="238" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B238" s="4" t="s">
+        <v>405</v>
+      </c>
+      <c r="C238" s="24"/>
+      <c r="D238" s="24"/>
+      <c r="E238" s="24"/>
+      <c r="F238" s="24"/>
+      <c r="G238" s="24"/>
+      <c r="H238" s="5"/>
+    </row>
+    <row r="239" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B239" s="4" t="s">
+        <v>406</v>
+      </c>
+      <c r="C239" s="24"/>
+      <c r="D239" s="24"/>
+      <c r="E239" s="24"/>
+      <c r="F239" s="24"/>
+      <c r="G239" s="24"/>
+      <c r="H239" s="5"/>
+    </row>
+    <row r="240" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B240" s="4" t="s">
+        <v>407</v>
+      </c>
+      <c r="C240" s="24"/>
+      <c r="D240" s="24"/>
+      <c r="E240" s="24"/>
+      <c r="F240" s="24"/>
+      <c r="G240" s="24"/>
+      <c r="H240" s="5"/>
+    </row>
+    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B241" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="C241" s="8"/>
+      <c r="D241" s="8"/>
+      <c r="E241" s="8"/>
+      <c r="F241" s="8"/>
+      <c r="G241" s="8"/>
+      <c r="H241" s="9"/>
+    </row>
+    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A244" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B245" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="C245" s="2"/>
+      <c r="D245" s="2"/>
+      <c r="E245" s="2"/>
+      <c r="F245" s="2"/>
+      <c r="G245" s="2"/>
+      <c r="H245" s="2"/>
+      <c r="I245" s="2"/>
+      <c r="J245" s="2"/>
+      <c r="K245" s="3"/>
+    </row>
+    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B246" s="4"/>
+      <c r="C246" s="24"/>
+      <c r="D246" s="24"/>
+      <c r="E246" s="24"/>
+      <c r="F246" s="24"/>
+      <c r="G246" s="24"/>
+      <c r="H246" s="24"/>
+      <c r="I246" s="24"/>
+      <c r="J246" s="24"/>
+      <c r="K246" s="5"/>
+    </row>
+    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B247" s="4" t="s">
+        <v>410</v>
+      </c>
+      <c r="C247" s="24"/>
+      <c r="D247" s="24"/>
+      <c r="E247" s="24"/>
+      <c r="F247" s="24"/>
+      <c r="G247" s="24"/>
+      <c r="H247" s="24"/>
+      <c r="I247" s="24"/>
+      <c r="J247" s="24"/>
+      <c r="K247" s="5"/>
+    </row>
+    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B248" s="4" t="s">
+        <v>411</v>
+      </c>
+      <c r="C248" s="24"/>
+      <c r="D248" s="24"/>
+      <c r="E248" s="24"/>
+      <c r="F248" s="24"/>
+      <c r="G248" s="24"/>
+      <c r="H248" s="24"/>
+      <c r="I248" s="24"/>
+      <c r="J248" s="24"/>
+      <c r="K248" s="5"/>
+    </row>
+    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B249" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="C249" s="24"/>
+      <c r="D249" s="24"/>
+      <c r="E249" s="24"/>
+      <c r="F249" s="24"/>
+      <c r="G249" s="24"/>
+      <c r="H249" s="24"/>
+      <c r="I249" s="24"/>
+      <c r="J249" s="24"/>
+      <c r="K249" s="5"/>
+    </row>
+    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B250" s="4" t="s">
+        <v>413</v>
+      </c>
+      <c r="C250" s="24"/>
+      <c r="D250" s="24"/>
+      <c r="E250" s="24"/>
+      <c r="F250" s="24"/>
+      <c r="G250" s="24"/>
+      <c r="H250" s="24"/>
+      <c r="I250" s="24"/>
+      <c r="J250" s="24"/>
+      <c r="K250" s="5"/>
+    </row>
+    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B251" s="4" t="s">
+        <v>414</v>
+      </c>
+      <c r="C251" s="24"/>
+      <c r="D251" s="24"/>
+      <c r="E251" s="24"/>
+      <c r="F251" s="24"/>
+      <c r="G251" s="24"/>
+      <c r="H251" s="24"/>
+      <c r="I251" s="24"/>
+      <c r="J251" s="24"/>
+      <c r="K251" s="5"/>
+    </row>
+    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B252" s="4" t="s">
+        <v>415</v>
+      </c>
+      <c r="C252" s="24"/>
+      <c r="D252" s="24"/>
+      <c r="E252" s="24"/>
+      <c r="F252" s="24"/>
+      <c r="G252" s="24"/>
+      <c r="H252" s="24"/>
+      <c r="I252" s="24"/>
+      <c r="J252" s="24"/>
+      <c r="K252" s="5"/>
+    </row>
+    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B253" s="4" t="s">
+        <v>416</v>
+      </c>
+      <c r="C253" s="24"/>
+      <c r="D253" s="24"/>
+      <c r="E253" s="24"/>
+      <c r="F253" s="24"/>
+      <c r="G253" s="24"/>
+      <c r="H253" s="24"/>
+      <c r="I253" s="24"/>
+      <c r="J253" s="24"/>
+      <c r="K253" s="5"/>
+    </row>
+    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B254" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="C254" s="24"/>
+      <c r="D254" s="24"/>
+      <c r="E254" s="24"/>
+      <c r="F254" s="24"/>
+      <c r="G254" s="24"/>
+      <c r="H254" s="24"/>
+      <c r="I254" s="24"/>
+      <c r="J254" s="24"/>
+      <c r="K254" s="5"/>
+    </row>
+    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B255" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="C255" s="24"/>
+      <c r="D255" s="24"/>
+      <c r="E255" s="24"/>
+      <c r="F255" s="24"/>
+      <c r="G255" s="24"/>
+      <c r="H255" s="24"/>
+      <c r="I255" s="24"/>
+      <c r="J255" s="24"/>
+      <c r="K255" s="5"/>
+    </row>
+    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B256" s="4" t="s">
+        <v>417</v>
+      </c>
+      <c r="C256" s="24"/>
+      <c r="D256" s="24"/>
+      <c r="E256" s="24"/>
+      <c r="F256" s="24"/>
+      <c r="G256" s="24"/>
+      <c r="H256" s="24"/>
+      <c r="I256" s="24"/>
+      <c r="J256" s="24"/>
+      <c r="K256" s="5"/>
+    </row>
+    <row r="257" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B257" s="4" t="s">
+        <v>418</v>
+      </c>
+      <c r="C257" s="24"/>
+      <c r="D257" s="24"/>
+      <c r="E257" s="24"/>
+      <c r="F257" s="24"/>
+      <c r="G257" s="24"/>
+      <c r="H257" s="24"/>
+      <c r="I257" s="24"/>
+      <c r="J257" s="24"/>
+      <c r="K257" s="5"/>
+    </row>
+    <row r="258" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B258" s="4" t="s">
+        <v>419</v>
+      </c>
+      <c r="C258" s="24"/>
+      <c r="D258" s="24"/>
+      <c r="E258" s="24"/>
+      <c r="F258" s="24"/>
+      <c r="G258" s="24"/>
+      <c r="H258" s="24"/>
+      <c r="I258" s="24"/>
+      <c r="J258" s="24"/>
+      <c r="K258" s="5"/>
+    </row>
+    <row r="259" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B259" s="4" t="s">
+        <v>420</v>
+      </c>
+      <c r="C259" s="24"/>
+      <c r="D259" s="24"/>
+      <c r="E259" s="24"/>
+      <c r="F259" s="24"/>
+      <c r="G259" s="24"/>
+      <c r="H259" s="24"/>
+      <c r="I259" s="24"/>
+      <c r="J259" s="24"/>
+      <c r="K259" s="5"/>
+    </row>
+    <row r="260" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B260" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="C260" s="24"/>
+      <c r="D260" s="24"/>
+      <c r="E260" s="24"/>
+      <c r="F260" s="24"/>
+      <c r="G260" s="24"/>
+      <c r="H260" s="24"/>
+      <c r="I260" s="24"/>
+      <c r="J260" s="24"/>
+      <c r="K260" s="5"/>
+    </row>
+    <row r="261" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B261" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="C261" s="24"/>
+      <c r="D261" s="24"/>
+      <c r="E261" s="24"/>
+      <c r="F261" s="24"/>
+      <c r="G261" s="24"/>
+      <c r="H261" s="24"/>
+      <c r="I261" s="24"/>
+      <c r="J261" s="24"/>
+      <c r="K261" s="5"/>
+    </row>
+    <row r="262" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B262" s="4" t="s">
+        <v>421</v>
+      </c>
+      <c r="C262" s="24"/>
+      <c r="D262" s="24"/>
+      <c r="E262" s="24"/>
+      <c r="F262" s="24"/>
+      <c r="G262" s="24"/>
+      <c r="H262" s="24"/>
+      <c r="I262" s="24"/>
+      <c r="J262" s="24"/>
+      <c r="K262" s="5"/>
+    </row>
+    <row r="263" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B263" s="4" t="s">
+        <v>422</v>
+      </c>
+      <c r="C263" s="24"/>
+      <c r="D263" s="24"/>
+      <c r="E263" s="24"/>
+      <c r="F263" s="24"/>
+      <c r="G263" s="24"/>
+      <c r="H263" s="24"/>
+      <c r="I263" s="24"/>
+      <c r="J263" s="24"/>
+      <c r="K263" s="5"/>
+    </row>
+    <row r="264" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B264" s="4" t="s">
+        <v>419</v>
+      </c>
+      <c r="C264" s="24"/>
+      <c r="D264" s="24"/>
+      <c r="E264" s="24"/>
+      <c r="F264" s="24"/>
+      <c r="G264" s="24"/>
+      <c r="H264" s="24"/>
+      <c r="I264" s="24"/>
+      <c r="J264" s="24"/>
+      <c r="K264" s="5"/>
+    </row>
+    <row r="265" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B265" s="4" t="s">
+        <v>423</v>
+      </c>
+      <c r="C265" s="24"/>
+      <c r="D265" s="24"/>
+      <c r="E265" s="24"/>
+      <c r="F265" s="24"/>
+      <c r="G265" s="24"/>
+      <c r="H265" s="24"/>
+      <c r="I265" s="24"/>
+      <c r="J265" s="24"/>
+      <c r="K265" s="5"/>
+    </row>
+    <row r="266" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B266" s="4" t="s">
+        <v>424</v>
+      </c>
+      <c r="C266" s="24"/>
+      <c r="D266" s="24"/>
+      <c r="E266" s="24"/>
+      <c r="F266" s="24"/>
+      <c r="G266" s="24"/>
+      <c r="H266" s="24"/>
+      <c r="I266" s="24"/>
+      <c r="J266" s="24"/>
+      <c r="K266" s="5"/>
+    </row>
+    <row r="267" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B267" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="C267" s="24"/>
+      <c r="D267" s="24"/>
+      <c r="E267" s="24"/>
+      <c r="F267" s="24"/>
+      <c r="G267" s="24"/>
+      <c r="H267" s="24"/>
+      <c r="I267" s="24"/>
+      <c r="J267" s="24"/>
+      <c r="K267" s="5"/>
+    </row>
+    <row r="268" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B268" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="C268" s="24"/>
+      <c r="D268" s="24"/>
+      <c r="E268" s="24"/>
+      <c r="F268" s="24"/>
+      <c r="G268" s="24"/>
+      <c r="H268" s="24"/>
+      <c r="I268" s="24"/>
+      <c r="J268" s="24"/>
+      <c r="K268" s="5"/>
+    </row>
+    <row r="269" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B269" s="4" t="s">
+        <v>425</v>
+      </c>
+      <c r="C269" s="24"/>
+      <c r="D269" s="24"/>
+      <c r="E269" s="24"/>
+      <c r="F269" s="24"/>
+      <c r="G269" s="24"/>
+      <c r="H269" s="24"/>
+      <c r="I269" s="24"/>
+      <c r="J269" s="24"/>
+      <c r="K269" s="5"/>
+    </row>
+    <row r="270" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B270" s="4" t="s">
+        <v>426</v>
+      </c>
+      <c r="C270" s="24"/>
+      <c r="D270" s="24"/>
+      <c r="E270" s="24"/>
+      <c r="F270" s="24"/>
+      <c r="G270" s="24"/>
+      <c r="H270" s="24"/>
+      <c r="I270" s="24"/>
+      <c r="J270" s="24"/>
+      <c r="K270" s="5"/>
+    </row>
+    <row r="271" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B271" s="4" t="s">
+        <v>419</v>
+      </c>
+      <c r="C271" s="24"/>
+      <c r="D271" s="24"/>
+      <c r="E271" s="24"/>
+      <c r="F271" s="24"/>
+      <c r="G271" s="24"/>
+      <c r="H271" s="24"/>
+      <c r="I271" s="24"/>
+      <c r="J271" s="24"/>
+      <c r="K271" s="5"/>
+    </row>
+    <row r="272" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B272" s="4" t="s">
+        <v>423</v>
+      </c>
+      <c r="C272" s="24"/>
+      <c r="D272" s="24"/>
+      <c r="E272" s="24"/>
+      <c r="F272" s="24"/>
+      <c r="G272" s="24"/>
+      <c r="H272" s="24"/>
+      <c r="I272" s="24"/>
+      <c r="J272" s="24"/>
+      <c r="K272" s="5"/>
+    </row>
+    <row r="273" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B273" s="4" t="s">
+        <v>427</v>
+      </c>
+      <c r="C273" s="24"/>
+      <c r="D273" s="24"/>
+      <c r="E273" s="24"/>
+      <c r="F273" s="24"/>
+      <c r="G273" s="24"/>
+      <c r="H273" s="24"/>
+      <c r="I273" s="24"/>
+      <c r="J273" s="24"/>
+      <c r="K273" s="5"/>
+    </row>
+    <row r="274" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B274" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="C274" s="24"/>
+      <c r="D274" s="24"/>
+      <c r="E274" s="24"/>
+      <c r="F274" s="24"/>
+      <c r="G274" s="24"/>
+      <c r="H274" s="24"/>
+      <c r="I274" s="24"/>
+      <c r="J274" s="24"/>
+      <c r="K274" s="5"/>
+    </row>
+    <row r="275" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B275" s="4" t="s">
+        <v>428</v>
+      </c>
+      <c r="C275" s="24"/>
+      <c r="D275" s="24"/>
+      <c r="E275" s="24"/>
+      <c r="F275" s="24"/>
+      <c r="G275" s="24"/>
+      <c r="H275" s="24"/>
+      <c r="I275" s="24"/>
+      <c r="J275" s="24"/>
+      <c r="K275" s="5"/>
+    </row>
+    <row r="276" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B276" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="C276" s="8"/>
+      <c r="D276" s="8"/>
+      <c r="E276" s="8"/>
+      <c r="F276" s="8"/>
+      <c r="G276" s="8"/>
+      <c r="H276" s="8"/>
+      <c r="I276" s="8"/>
+      <c r="J276" s="8"/>
+      <c r="K276" s="9"/>
+    </row>
+    <row r="279" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A279" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="280" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B280" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C280" s="2"/>
+      <c r="D280" s="2"/>
+      <c r="E280" s="2"/>
+      <c r="F280" s="2"/>
+      <c r="G280" s="2"/>
+      <c r="H280" s="2"/>
+      <c r="I280" s="2"/>
+      <c r="J280" s="2"/>
+      <c r="K280" s="2"/>
+      <c r="L280" s="3"/>
+    </row>
+    <row r="281" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B281" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="C281" s="24"/>
+      <c r="D281" s="24"/>
+      <c r="E281" s="24"/>
+      <c r="F281" s="24"/>
+      <c r="G281" s="24"/>
+      <c r="H281" s="24"/>
+      <c r="I281" s="24"/>
+      <c r="J281" s="24"/>
+      <c r="K281" s="24"/>
+      <c r="L281" s="5"/>
+    </row>
+    <row r="282" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B282" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="C282" s="24"/>
+      <c r="D282" s="24"/>
+      <c r="E282" s="24"/>
+      <c r="F282" s="24"/>
+      <c r="G282" s="24"/>
+      <c r="H282" s="24"/>
+      <c r="I282" s="24"/>
+      <c r="J282" s="24"/>
+      <c r="K282" s="24"/>
+      <c r="L282" s="5"/>
+    </row>
+    <row r="283" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B283" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="C283" s="24"/>
+      <c r="D283" s="24"/>
+      <c r="E283" s="24"/>
+      <c r="F283" s="24"/>
+      <c r="G283" s="24"/>
+      <c r="H283" s="24"/>
+      <c r="I283" s="24"/>
+      <c r="J283" s="24"/>
+      <c r="K283" s="24"/>
+      <c r="L283" s="5"/>
+    </row>
+    <row r="284" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B284" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="C284" s="24"/>
+      <c r="D284" s="24"/>
+      <c r="E284" s="24"/>
+      <c r="F284" s="24"/>
+      <c r="G284" s="24"/>
+      <c r="H284" s="24"/>
+      <c r="I284" s="24"/>
+      <c r="J284" s="24"/>
+      <c r="K284" s="24"/>
+      <c r="L284" s="5"/>
+    </row>
+    <row r="285" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B285" s="4" t="s">
+        <v>430</v>
+      </c>
+      <c r="C285" s="24"/>
+      <c r="D285" s="24"/>
+      <c r="E285" s="24"/>
+      <c r="F285" s="24"/>
+      <c r="G285" s="24"/>
+      <c r="H285" s="24"/>
+      <c r="I285" s="24"/>
+      <c r="J285" s="24"/>
+      <c r="K285" s="24"/>
+      <c r="L285" s="5"/>
+    </row>
+    <row r="286" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B286" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="C286" s="24"/>
+      <c r="D286" s="24"/>
+      <c r="E286" s="24"/>
+      <c r="F286" s="24"/>
+      <c r="G286" s="24"/>
+      <c r="H286" s="24"/>
+      <c r="I286" s="24"/>
+      <c r="J286" s="24"/>
+      <c r="K286" s="24"/>
+      <c r="L286" s="5"/>
+    </row>
+    <row r="287" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B287" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="C287" s="24"/>
+      <c r="D287" s="24"/>
+      <c r="E287" s="24"/>
+      <c r="F287" s="24"/>
+      <c r="G287" s="24"/>
+      <c r="H287" s="24"/>
+      <c r="I287" s="24"/>
+      <c r="J287" s="24"/>
+      <c r="K287" s="24"/>
+      <c r="L287" s="5"/>
+    </row>
+    <row r="288" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B288" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="C288" s="24"/>
+      <c r="D288" s="24"/>
+      <c r="E288" s="24"/>
+      <c r="F288" s="24"/>
+      <c r="G288" s="24"/>
+      <c r="H288" s="24"/>
+      <c r="I288" s="24"/>
+      <c r="J288" s="24"/>
+      <c r="K288" s="24"/>
+      <c r="L288" s="5"/>
+    </row>
+    <row r="289" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B289" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="C289" s="24"/>
+      <c r="D289" s="24"/>
+      <c r="E289" s="24"/>
+      <c r="F289" s="24"/>
+      <c r="G289" s="24"/>
+      <c r="H289" s="24"/>
+      <c r="I289" s="24"/>
+      <c r="J289" s="24"/>
+      <c r="K289" s="24"/>
+      <c r="L289" s="5"/>
+    </row>
+    <row r="290" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B290" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="C290" s="24"/>
+      <c r="D290" s="24"/>
+      <c r="E290" s="24"/>
+      <c r="F290" s="24"/>
+      <c r="G290" s="24"/>
+      <c r="H290" s="24"/>
+      <c r="I290" s="24"/>
+      <c r="J290" s="24"/>
+      <c r="K290" s="24"/>
+      <c r="L290" s="5"/>
+    </row>
+    <row r="291" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B291" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="C291" s="24"/>
+      <c r="D291" s="24"/>
+      <c r="E291" s="24"/>
+      <c r="F291" s="24"/>
+      <c r="G291" s="24"/>
+      <c r="H291" s="24"/>
+      <c r="I291" s="24"/>
+      <c r="J291" s="24"/>
+      <c r="K291" s="24"/>
+      <c r="L291" s="5"/>
+    </row>
+    <row r="292" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B292" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="C292" s="24"/>
+      <c r="D292" s="24"/>
+      <c r="E292" s="24"/>
+      <c r="F292" s="24"/>
+      <c r="G292" s="24"/>
+      <c r="H292" s="24"/>
+      <c r="I292" s="24"/>
+      <c r="J292" s="24"/>
+      <c r="K292" s="24"/>
+      <c r="L292" s="5"/>
+    </row>
+    <row r="293" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B293" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="C293" s="24"/>
+      <c r="D293" s="24"/>
+      <c r="E293" s="24"/>
+      <c r="F293" s="24"/>
+      <c r="G293" s="24"/>
+      <c r="H293" s="24"/>
+      <c r="I293" s="24"/>
+      <c r="J293" s="24"/>
+      <c r="K293" s="24"/>
+      <c r="L293" s="5"/>
+    </row>
+    <row r="294" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B294" s="4"/>
+      <c r="C294" s="24"/>
+      <c r="D294" s="24"/>
+      <c r="E294" s="24"/>
+      <c r="F294" s="24"/>
+      <c r="G294" s="24"/>
+      <c r="H294" s="24"/>
+      <c r="I294" s="24"/>
+      <c r="J294" s="24"/>
+      <c r="K294" s="24"/>
+      <c r="L294" s="5"/>
+    </row>
+    <row r="295" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B295" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="C295" s="24"/>
+      <c r="D295" s="24"/>
+      <c r="E295" s="24"/>
+      <c r="F295" s="24"/>
+      <c r="G295" s="24"/>
+      <c r="H295" s="24"/>
+      <c r="I295" s="24"/>
+      <c r="J295" s="24"/>
+      <c r="K295" s="24"/>
+      <c r="L295" s="5"/>
+    </row>
+    <row r="296" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B296" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="C296" s="24"/>
+      <c r="D296" s="24"/>
+      <c r="E296" s="24"/>
+      <c r="F296" s="24"/>
+      <c r="G296" s="24"/>
+      <c r="H296" s="24"/>
+      <c r="I296" s="24"/>
+      <c r="J296" s="24"/>
+      <c r="K296" s="24"/>
+      <c r="L296" s="5"/>
+    </row>
+    <row r="297" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B297" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="C297" s="24"/>
+      <c r="D297" s="24"/>
+      <c r="E297" s="24"/>
+      <c r="F297" s="24"/>
+      <c r="G297" s="24"/>
+      <c r="H297" s="24"/>
+      <c r="I297" s="24"/>
+      <c r="J297" s="24"/>
+      <c r="K297" s="24"/>
+      <c r="L297" s="5"/>
+    </row>
+    <row r="298" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B298" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="C298" s="24"/>
+      <c r="D298" s="24"/>
+      <c r="E298" s="24"/>
+      <c r="F298" s="24"/>
+      <c r="G298" s="24"/>
+      <c r="H298" s="24"/>
+      <c r="I298" s="24"/>
+      <c r="J298" s="24"/>
+      <c r="K298" s="24"/>
+      <c r="L298" s="5"/>
+    </row>
+    <row r="299" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B299" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="C299" s="24"/>
+      <c r="D299" s="24"/>
+      <c r="E299" s="24"/>
+      <c r="F299" s="24"/>
+      <c r="G299" s="24"/>
+      <c r="H299" s="24"/>
+      <c r="I299" s="24"/>
+      <c r="J299" s="24"/>
+      <c r="K299" s="24"/>
+      <c r="L299" s="5"/>
+    </row>
+    <row r="300" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B300" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="C300" s="24"/>
+      <c r="D300" s="24"/>
+      <c r="E300" s="24"/>
+      <c r="F300" s="24"/>
+      <c r="G300" s="24"/>
+      <c r="H300" s="24"/>
+      <c r="I300" s="24"/>
+      <c r="J300" s="24"/>
+      <c r="K300" s="24"/>
+      <c r="L300" s="5"/>
+    </row>
+    <row r="301" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B301" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="C301" s="24"/>
+      <c r="D301" s="24"/>
+      <c r="E301" s="24"/>
+      <c r="F301" s="24"/>
+      <c r="G301" s="24"/>
+      <c r="H301" s="24"/>
+      <c r="I301" s="24"/>
+      <c r="J301" s="24"/>
+      <c r="K301" s="24"/>
+      <c r="L301" s="5"/>
+    </row>
+    <row r="302" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B302" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="C302" s="24"/>
+      <c r="D302" s="24"/>
+      <c r="E302" s="24"/>
+      <c r="F302" s="24"/>
+      <c r="G302" s="24"/>
+      <c r="H302" s="24"/>
+      <c r="I302" s="24"/>
+      <c r="J302" s="24"/>
+      <c r="K302" s="24"/>
+      <c r="L302" s="5"/>
+    </row>
+    <row r="303" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B303" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="C303" s="24"/>
+      <c r="D303" s="24"/>
+      <c r="E303" s="24"/>
+      <c r="F303" s="24"/>
+      <c r="G303" s="24"/>
+      <c r="H303" s="24"/>
+      <c r="I303" s="24"/>
+      <c r="J303" s="24"/>
+      <c r="K303" s="24"/>
+      <c r="L303" s="5"/>
+    </row>
+    <row r="304" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B304" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="C304" s="8"/>
+      <c r="D304" s="8"/>
+      <c r="E304" s="8"/>
+      <c r="F304" s="8"/>
+      <c r="G304" s="8"/>
+      <c r="H304" s="8"/>
+      <c r="I304" s="8"/>
+      <c r="J304" s="8"/>
+      <c r="K304" s="8"/>
+      <c r="L304" s="9"/>
+    </row>
+    <row r="316" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A316" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="317" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B317" s="25" t="s">
+        <v>398</v>
+      </c>
+      <c r="C317" s="2"/>
+      <c r="D317" s="2"/>
+      <c r="E317" s="3"/>
+    </row>
+    <row r="318" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B318" s="4"/>
+      <c r="C318" s="24"/>
+      <c r="D318" s="24"/>
+      <c r="E318" s="5"/>
+    </row>
+    <row r="319" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B319" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="C319" s="24"/>
+      <c r="D319" s="24"/>
+      <c r="E319" s="5"/>
+    </row>
+    <row r="320" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B320" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="C320" s="24"/>
+      <c r="D320" s="24"/>
+      <c r="E320" s="5"/>
+    </row>
+    <row r="321" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B321" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="C321" s="24"/>
+      <c r="D321" s="24"/>
+      <c r="E321" s="5"/>
+    </row>
+    <row r="322" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B322" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="C322" s="24"/>
+      <c r="D322" s="24"/>
+      <c r="E322" s="5"/>
+    </row>
+    <row r="323" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B323" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="C323" s="24"/>
+      <c r="D323" s="24"/>
+      <c r="E323" s="5"/>
+    </row>
+    <row r="324" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B324" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="C324" s="24"/>
+      <c r="D324" s="24"/>
+      <c r="E324" s="5"/>
+    </row>
+    <row r="325" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B325" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="C325" s="8"/>
+      <c r="D325" s="8"/>
+      <c r="E325" s="9"/>
+    </row>
+    <row r="328" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A328" s="10" t="s">
+        <v>366</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>